--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,214 +665,227 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43617</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43526</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43435</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43344</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43253</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43162</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43064</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42973</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42882</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42791</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42700</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3106800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2759300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2719400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2573000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3307900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3032200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2935000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2753700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3716300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2954500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2936400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2742100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3534000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2955500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2093200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1845500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1992500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1685800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2161000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2028500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1946500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1788800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2383000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1913500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1867800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1742000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2190900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1862700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1013600</v>
+      </c>
+      <c r="E10" s="3">
         <v>913800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>726900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>887200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1146900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1003700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>988500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>964900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1333300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1041000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1068600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1343100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1092800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +903,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,25 +1001,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E14" s="3">
         <v>11800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>401300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>509900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1010,8 +1030,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1031,8 +1051,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,8 +1068,8 @@
       <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1057,8 +1080,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1078,8 +1101,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1094,102 +1120,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3188000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2789100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2901700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2979800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3604600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2982700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2856200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2672400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3379200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2846200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2767500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2595100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3104000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2744200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-182300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-406800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-296700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>337100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>108300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>168900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>147000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>430000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>211300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,8 +1240,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,196 +1288,211 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E21" s="3">
         <v>57400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-97800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-323300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-204400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>134300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>422800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>187300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>242400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>221900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>505700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>285200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E22" s="3">
         <v>17200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-198600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-422700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-312200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>320800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>94700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>149700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>130400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>413100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>193000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-59800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-51700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-58400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>144400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1489,102 +1538,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-138800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-371100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-253800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>43600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>204500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>75300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>268700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>126400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-38600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-138800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-371100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-253800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>204500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>94200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>268700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>126400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,11 +1717,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1677,8 +1738,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,8 +1838,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1818,55 +1888,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-38600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-138800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-371100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-253800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>194000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>94200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>268700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>126400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,107 +1988,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-38600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-138800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-371100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-253800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>194000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>94200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>268700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>126400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43617</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43526</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43435</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43344</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43253</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43162</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43064</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42973</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42882</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42791</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42700</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2049,84 +2135,88 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000300</v>
+      </c>
+      <c r="E41" s="3">
         <v>900100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>983800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>509000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>762500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>869300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>678600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>346100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>453100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>464100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>469300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>488300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>473000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>385600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>201700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>485800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>238300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>205900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>148300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>378000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2134,8 +2224,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2143,8 +2233,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2190,243 +2283,261 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2093900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2543200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2334900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2540900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2618900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3005500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2813600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2646300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2730900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3199700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2878600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2962900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2905700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3268600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E45" s="3">
         <v>361100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>301400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>254200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>296300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>474300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>387300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>483200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>516000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>287700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>187700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>217900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>395800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>528500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3826300</v>
+      </c>
+      <c r="E46" s="3">
         <v>3804400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3620200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3697100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3910000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4480600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4276100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3956400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3971100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3940500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3530400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3650200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3591900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4270100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E47" s="3">
         <v>20100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>86400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3437600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3696600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3785300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3813600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1853100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1866100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1882000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1893200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1909300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1841000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1834500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1817600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1837100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1769100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2440,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>391100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>716300</v>
       </c>
       <c r="I49" s="3">
         <v>716300</v>
@@ -2458,22 +2569,25 @@
         <v>716300</v>
       </c>
       <c r="M49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="N49" s="3">
         <v>707100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>707600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>697100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>709400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2566,55 +2683,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>506300</v>
+      </c>
+      <c r="E52" s="3">
         <v>490900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>490400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>456800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>396400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>453900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>425700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>427900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>424600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>583400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>611500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>604300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>606900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>397800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,55 +2783,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7790500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8012000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7916400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7988200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6570500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7536700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7319900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7013700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7040800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7188900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6782700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6875800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6822700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7232800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2726,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,69 +2875,73 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>944200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1210300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1073900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1066300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1094100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1554400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1366200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1082900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1197500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1455400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1168100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1178800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1179100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1621400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>1500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2818,8 +2952,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2839,196 +2973,211 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1520800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1486200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1411700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1363300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>983600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1124700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1077900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1045100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>968200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>905700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>820900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>946200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>853400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>886000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2466500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2698000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2487100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2431100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2077600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2679000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2444000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2128100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2165700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2361100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1989000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2125000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2032500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2507400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1590800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1591100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1591300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1591600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1487900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1492400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1492300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1492200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1492100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1492000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1491800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1491700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1491600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1491500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1968200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1874700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1934200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1903500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>444600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>462000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>481100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>489300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>494400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>587000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>580100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>586500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>579300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>618900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3168,55 +3323,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6025600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6163800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6012700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5926200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4010200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4633500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4417500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4109600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4152200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4440000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4061000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4203200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4103400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4617800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3234,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3281,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3328,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3375,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,55 +3593,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10374800</v>
+      </c>
+      <c r="E72" s="3">
         <v>10460800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10521700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10679500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11112900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11388900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11386600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11360600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11343500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11170300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11130300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11057800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11003900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10753800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3610,55 +3793,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1764900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1848200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1903700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2062000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2560300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2903300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2902400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2904200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2888600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2748800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2721700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2672600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2719300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2615000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3704,107 +3893,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43617</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43526</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43435</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43344</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43253</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43162</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43064</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42973</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42882</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42791</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42700</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-38600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-138800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-371100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-253800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>194000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>94200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>268700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>126400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3822,55 +4020,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E83" s="3">
         <v>87100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>92300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>79600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>73600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4057,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4104,55 +4318,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>165800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>90100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>252800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>394000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>245000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>367800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>274500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4170,55 +4390,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-56800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-74900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-83700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-97800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-111800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-87000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-96200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-80800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-470700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4264,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4311,55 +4538,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-208300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>145200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>217600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-403100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-101600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-139700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>134700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-404400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-97100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-280300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4377,55 +4610,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-22000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-20800</v>
       </c>
       <c r="L96" s="3">
         <v>-20800</v>
       </c>
       <c r="M96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4518,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4565,145 +4808,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-103400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-103200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-77500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-135300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-189600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-94600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>275000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>202200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-253500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-106800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>190700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>332500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-104800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,227 +665,240 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43617</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43526</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43435</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43344</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43253</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43162</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43064</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42973</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42882</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42791</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42700</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1307400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3106800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2759300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2719400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2573000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3307900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3032200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2935000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2753700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3716300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2954500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2936400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2742100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3534000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2955500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2093200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1845500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1992500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1685800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2161000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2028500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1946500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1788800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2383000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1913500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1867800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1742000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2190900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1862700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>348400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1013600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>913800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>726900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>887200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1146900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1003700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>988500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>964900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1333300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1041000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1068600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1343100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1092800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +917,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,28 +1021,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E14" s="3">
         <v>67800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>401300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>509900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1033,8 +1053,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1054,8 +1074,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,8 +1094,8 @@
       <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1083,8 +1106,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,108 +1147,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1768400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3188000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2789100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2901700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2979800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3604600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2982700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2856200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2672400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3379200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2846200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2767500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2595100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2744200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-461000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-81200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-182300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-406800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-296700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>49500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>81300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>337100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>108300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>168900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>147000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>430000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>211300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,8 +1274,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,208 +1325,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-377300</v>
+      </c>
+      <c r="E21" s="3">
         <v>6200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-97800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-323300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-204400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>134300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>422800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>187300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>242400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>221900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>505700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>285200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E22" s="3">
         <v>15400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-478100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-96600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-46900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-198600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-422700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-312200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>320800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>94700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>149700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>130400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>413100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>193000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-132800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-31200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-59800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-51700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-58400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>144400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,108 +1590,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-345300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-65400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-138800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-371100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-253800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>204500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>75300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>268700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>126400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-345300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-138800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-371100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-253800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>94200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>75300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>268700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>126400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,13 +1749,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>43000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1720,11 +1781,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1908,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1891,58 +1961,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-302300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-138800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-371100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-253800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>194000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>94200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>268700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>126400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,113 +2067,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-302300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-138800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-371100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-253800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>194000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>94200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>268700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>126400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43617</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43526</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43435</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43344</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43253</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43162</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43064</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42973</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42882</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42791</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42700</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,90 +2222,94 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>983800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>509000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>762500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>869300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>678600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>453100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>464100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>469300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>488300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>473000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E42" s="3">
         <v>385600</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>201700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>485800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>238300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>205900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>148300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>378000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2227,8 +2317,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2236,8 +2326,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2286,263 +2379,281 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2240400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2093900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2543200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2334900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2540900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2618900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3005500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2813600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2646300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2730900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3199700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2878600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2962900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2905700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3268600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>425300</v>
+      </c>
+      <c r="E45" s="3">
         <v>346400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>361100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>301400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>254200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>296300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>474300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>387300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>483200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>516000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>287700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>187700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>217900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>395800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>528500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3816200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3826300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3804400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3620200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3697100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3910000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4480600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4276100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3956400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3971100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3940500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3530400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3650200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3591900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4270100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E47" s="3">
         <v>20400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>86400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3265500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3437600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3696600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3785300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3813600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1853100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1866100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1882000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1893200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1909300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1841000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1834500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1817600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1837100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1769100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>85700</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2554,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>391100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>716300</v>
       </c>
       <c r="J49" s="3">
         <v>716300</v>
@@ -2572,22 +2683,25 @@
         <v>716300</v>
       </c>
       <c r="N49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="O49" s="3">
         <v>707100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>707600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>697100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>709400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,58 +2803,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E52" s="3">
         <v>506300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>490900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>490400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>456800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>396400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>453900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>425700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>427900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>424600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>583400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>611500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>604300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>606900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>397800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,58 +2909,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7694300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7790500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8012000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7916400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7988200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6570500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7536700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7319900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7013700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7040800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7188900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6782700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6875800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6822700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7232800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,75 +3006,79 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>954700</v>
+      </c>
+      <c r="E57" s="3">
         <v>944200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1210300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1073900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1066300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1094100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1554400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1366200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1082900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1197500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1455400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1168100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1178800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1179100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1621400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>1500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2955,8 +3089,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2976,208 +3110,223 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1506900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1520800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1486200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1411700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1363300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>983600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1124700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1077900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1045100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>968200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>905700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>820900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>946200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>853400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>886000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2464000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2466500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2698000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2487100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2431100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2077600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2679000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2444000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2128100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2165700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2361100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1989000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2125000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2032500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2507400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1590800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1591100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1591300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1591600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1487900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1492400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1492300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1492200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1492100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1492000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1491800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1491700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1491600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1491500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1942300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1968200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1874700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1934200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1903500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>444600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>462000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>481100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>489300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>494400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>587000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>580100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>586500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>579300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>618900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,58 +3481,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6233300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6025600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6163800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6012700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5926200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4010200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4633500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4417500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4109600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4152200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4440000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4061000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4203200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4103400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4617800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,58 +3767,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10072500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10374800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10460800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10521700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10679500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11112900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11388900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11386600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11360600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11343500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11170300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11130300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11057800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11003900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10753800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,58 +3979,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1461100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1764900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1848200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1903700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2062000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2560300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2903300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2902400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2904200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2888600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2748800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2721700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2672600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2719300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2615000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,113 +4085,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43617</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43526</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43435</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43344</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43253</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43162</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43064</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42973</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42882</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42791</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42700</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-302300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-138800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-371100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-253800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>194000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>94200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>268700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>126400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,58 +4219,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E83" s="3">
         <v>87400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>92300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>82100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>73600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>75800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,58 +4535,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-392400</v>
+      </c>
+      <c r="E89" s="3">
         <v>329000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>165800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>90100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>252800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>394000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>245000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>367800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>160100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>274500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,58 +4611,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-56800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-68900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-74900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-83700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-97800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-111800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-87000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-96200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-80800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-470700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-91600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,58 +4768,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-208300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>145200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>217600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-403100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-101600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-139700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>134700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-404400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-97100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-85100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-97900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-280300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,58 +4844,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-22000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-20800</v>
       </c>
       <c r="M96" s="3">
         <v>-20800</v>
       </c>
       <c r="N96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,154 +5054,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-103400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-103200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-77500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-135300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-189600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-94600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E102" s="3">
         <v>100300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>275000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>202200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-253500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-106800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>190700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>332500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-107000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-104800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,253 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E7" s="2">
         <v>43981</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43617</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43526</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43435</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43344</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43253</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43162</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43064</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42973</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42882</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42791</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42700</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1307400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3106800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2759300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2719400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2573000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3307900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3032200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2935000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2753700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3716300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2954500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2936400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2742100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3534000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2955500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700400</v>
+      </c>
+      <c r="E9" s="3">
         <v>959000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2093200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1845500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1992500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1685800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2161000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2028500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1946500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1788800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2383000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1913500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1867800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1742000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2190900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1862700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>987600</v>
+      </c>
+      <c r="E10" s="3">
         <v>348400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1013600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>913800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>726900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>887200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1146900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1003700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>988500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>964900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1333300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1041000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1068600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1343100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1092800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +931,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -971,8 +985,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,31 +1041,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>110100</v>
+        <v>-214700</v>
       </c>
       <c r="E14" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F14" s="3">
         <v>67800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>401300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>509900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1056,8 +1076,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1077,13 +1097,16 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
@@ -1097,8 +1120,8 @@
       <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1132,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1130,8 +1153,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1148,114 +1174,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2340400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1768400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3188000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2789100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2901700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2979800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3604600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2982700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2856200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2672400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3379200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2846200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2767500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2595100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3104000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2744200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-461000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-81200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-182300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-406800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-296700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>49500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>81300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>337100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>108300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>168900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>147000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>430000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>211300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1275,8 +1308,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,220 +1362,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>432900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-377300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-97800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-323300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-204400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>134300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>422800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>187300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>242400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>221900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>505700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>285200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E22" s="3">
         <v>17200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-478100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-96600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-46900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-198600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-422700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-312200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>320800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>94700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>130400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>413100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>193000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-132800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-31200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-59800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-51700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-58400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>144400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1593,114 +1642,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-345300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-138800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-371100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-253800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>204500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>75300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>268700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>126400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-345300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-65400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-138800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-371100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-253800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>204500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>94200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>268700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>126400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1752,16 +1810,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>43000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1784,11 +1845,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1805,8 +1866,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1858,8 +1922,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1978,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1964,61 +2034,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-302300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-65400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-138800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-371100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-253800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>94200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>268700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>126400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2070,119 +2146,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-302300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-65400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-138800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-371100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-253800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>94200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>268700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>126400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E38" s="2">
         <v>43981</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43617</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43526</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43435</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43344</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43253</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43162</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43064</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42973</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42882</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42791</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42700</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2202,8 +2287,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2223,96 +2309,100 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1441800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1121000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>983800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>509000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>762500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>869300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>678600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>346100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>453100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>464100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>469300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>488300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>473000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>29500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>385600</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>201700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>485800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>238300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>205900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>148300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>378000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2410,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2329,8 +2419,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2382,167 +2475,179 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2052000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2240400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2093900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2543200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2334900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2540900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2618900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3005500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2813600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2646300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2730900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3199700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2878600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2962900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2905700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3268600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E45" s="3">
         <v>425300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>346400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>361100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>301400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>254200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>296300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>474300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>387300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>483200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>516000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>287700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>187700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>217900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>395800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>528500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3743600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3816200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3826300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3804400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3620200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3697100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3910000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4480600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4276100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3956400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3971100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3940500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3530400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3650200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3591900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4270100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2550,114 +2655,120 @@
         <v>19900</v>
       </c>
       <c r="E47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F47" s="3">
         <v>20400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>86400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3209700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3265500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3437600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3696600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3785300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3813600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1853100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1866100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1882000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1893200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1909300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1841000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1834500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1817600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1837100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1769100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E49" s="3">
         <v>85700</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
@@ -2668,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>391100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>716300</v>
       </c>
       <c r="K49" s="3">
         <v>716300</v>
@@ -2686,22 +2797,25 @@
         <v>716300</v>
       </c>
       <c r="O49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="P49" s="3">
         <v>707100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>707600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>697100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>709400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2753,8 +2867,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2806,61 +2923,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>407500</v>
+      </c>
+      <c r="E52" s="3">
         <v>507000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>506300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>490900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>490400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>456800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>396400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>453900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>425700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>427900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>424600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>583400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>611500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>604300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>606900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>397800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2912,61 +3035,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7439100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7694300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7790500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8012000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7916400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7988200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6570500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7536700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7319900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7013700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7040800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7188900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6782700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6875800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6822700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7232800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +3115,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3007,81 +3137,85 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1028700</v>
+      </c>
+      <c r="E57" s="3">
         <v>954700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>944200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1210300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1073900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1066300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1094100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1554400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1366200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1082900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1197500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1455400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1168100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1178800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1179100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1621400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>1500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3092,8 +3226,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3113,220 +3247,235 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1472300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1506900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1520800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1486200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1411700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1363300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>983600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1124700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1077900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1045100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>968200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>905700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>820900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>946200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>853400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>886000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2502500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2464000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2466500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2698000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2487100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2431100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2077600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2679000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2444000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2128100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2165700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2361100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1989000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2125000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2032500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2507400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1291800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1827000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1590800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1591100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1591300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1591600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1487900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1492400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1492300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1492200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1492100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1491800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1491700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1491600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1491500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1947700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1942300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1968200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1874700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1934200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1903500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>444600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>462000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>481100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>489300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>494400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>587000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>580100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>586500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>579300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>618900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +3527,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3583,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3484,61 +3639,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5742100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6233300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6025600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6163800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6012700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5926200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4010200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4633500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4417500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4109600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4152200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4440000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4061000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4203200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4103400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4617800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3558,8 +3719,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3611,8 +3773,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +3829,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3717,8 +3885,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3770,61 +3941,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10290900</v>
+      </c>
+      <c r="E72" s="3">
         <v>10072500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10374800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10460800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10521700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10679500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11112900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11388900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11386600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11360600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11343500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11170300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11130300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11057800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11003900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10753800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,8 +4053,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3929,8 +4109,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3982,61 +4165,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1461100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1764900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1848200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1903700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2062000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2560300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2903300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2902400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2904200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2888600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2748800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2721700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2672600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2719300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2615000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4088,119 +4277,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E80" s="2">
         <v>43981</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43617</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43526</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43435</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43344</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43253</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43162</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43064</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42973</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42882</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42791</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42700</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-302300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-65400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-138800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-371100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-253800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>94200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>268700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>126400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4220,61 +4418,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E83" s="3">
         <v>83600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>92300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4326,8 +4528,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4379,8 +4584,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4432,8 +4640,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4485,8 +4696,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4538,61 +4752,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-392400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>329000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>165800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>90100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>252800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>394000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>245000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>367800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>127100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>160100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>274500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4612,61 +4832,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-56800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-68400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-74900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-97800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-111800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-87000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-96200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-80800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-470700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4718,8 +4942,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4771,61 +4998,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>237300</v>
+      </c>
+      <c r="E94" s="3">
         <v>314600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-208300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>145200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>217600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-403100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-101600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-139700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>134700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-404400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-97100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-280300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4845,61 +5078,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-20800</v>
       </c>
       <c r="N96" s="3">
         <v>-20800</v>
       </c>
       <c r="O96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="P96" s="3">
         <v>-21100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4951,8 +5188,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5004,8 +5244,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5057,163 +5300,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-467800</v>
+      </c>
+      <c r="E100" s="3">
         <v>212700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-103400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-103200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-77500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-135300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-189600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-94600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>320900</v>
+      </c>
+      <c r="E102" s="3">
         <v>131500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>275000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>202200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-253500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-106800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>190700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>332500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-107000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-104800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,253 +665,265 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E7" s="2">
         <v>44072</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43981</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43617</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43526</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43435</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43344</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43253</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43162</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43064</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42973</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42882</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42791</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42700</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2618500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2688000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1307400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3106800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2759300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2719400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2573000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3307900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3032200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2935000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2753700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3716300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2954500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2936400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2742100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3534000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2955500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1661900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>959000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2093200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1845500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1992500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1685800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2161000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2028500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1946500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1788800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2383000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1913500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1867800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1742000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2190900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1862700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>956600</v>
+      </c>
+      <c r="E10" s="3">
         <v>987600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>348400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1013600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>913800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>726900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>887200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1146900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1003700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>988500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>964900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1333300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1041000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1068600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1343100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1092800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,8 +944,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1001,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,34 +1060,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-214700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>62400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>67800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>401300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>509900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1079,8 +1098,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1100,16 +1119,19 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
@@ -1123,8 +1145,8 @@
       <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1135,8 +1157,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1156,8 +1178,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1175,120 +1200,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2741300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2340400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1768400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3188000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2789100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2901700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2979800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3604600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2982700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2856200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2672400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3379200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2846200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2767500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2595100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3104000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2744200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E18" s="3">
         <v>347600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-461000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-81200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-182300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-406800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-296700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>337100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>108300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>168900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>147000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>430000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>211300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1341,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1365,232 +1398,247 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E21" s="3">
         <v>432900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-377300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-97800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-323300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-204400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>422800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>187300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>242400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>221900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>505700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>285200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E22" s="3">
         <v>23400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="E23" s="3">
         <v>324200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-478100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-96600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-198600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-422700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-312200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>64500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>320800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>94700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>149700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>130400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>413100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>193000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E24" s="3">
         <v>106300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-132800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-31200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-59800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-51700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-58400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>144400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,120 +1693,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E26" s="3">
         <v>217900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-345300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-65400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-138800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-371100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-253800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>204500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>75300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>268700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>126400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E27" s="3">
         <v>217900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-345300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-65400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-138800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-371100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-253800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>204500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>94200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>75300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>268700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>126400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1813,19 +1870,22 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>43000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1848,11 +1908,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1869,8 +1929,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1925,8 +1988,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1981,8 +2047,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2037,64 +2106,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="E33" s="3">
         <v>217900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-302300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-65400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-138800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-371100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-253800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>194000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>94200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>75300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>268700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>126400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2149,125 +2224,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="E35" s="3">
         <v>217900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-302300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-65400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-138800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-371100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-253800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>194000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>94200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>75300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>268700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>126400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E38" s="2">
         <v>44072</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43981</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43617</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43526</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43435</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43344</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43253</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43162</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43064</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42973</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42882</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42791</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42700</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2288,8 +2372,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2310,64 +2395,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1462600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1441800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1121000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>983800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>509000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>762500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>869300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>678600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>346100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>453100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>464100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>469300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>488300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>473000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,37 +2464,37 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>29500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>385600</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>201700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>485800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>238300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>205900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>148300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>378000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2413,8 +2502,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2422,8 +2511,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2478,300 +2570,318 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1780900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2052000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2240400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2093900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2543200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2334900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2540900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2618900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3005500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2813600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2646300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2730900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3199700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2878600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2962900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2905700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3268600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>721000</v>
+      </c>
+      <c r="E45" s="3">
         <v>249700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>425300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>346400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>361100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>301400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>254200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>296300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>474300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>387300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>483200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>516000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>287700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>187700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>217900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>395800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>528500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3964500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3743600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3816200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3826300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3804400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3620200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3697100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3910000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4480600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4276100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3956400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3971100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3940500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3530400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3650200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3591900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4270100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="E47" s="3">
         <v>19900</v>
       </c>
       <c r="F47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G47" s="3">
         <v>20400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>86400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2521200</v>
+      </c>
+      <c r="E48" s="3">
         <v>3209700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3265500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3437600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3696600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3785300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3813600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1853100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1866100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1882000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1893200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1909300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1841000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1834500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1817600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1837100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1769100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="3">
         <v>58500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>85700</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
@@ -2782,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>391100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>716300</v>
       </c>
       <c r="L49" s="3">
         <v>716300</v>
@@ -2800,22 +2910,25 @@
         <v>716300</v>
       </c>
       <c r="P49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>707100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>707600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>697100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>709400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2870,8 +2983,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2926,64 +3042,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E52" s="3">
         <v>407500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>507000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>506300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>490900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>490400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>456800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>396400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>453900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>425700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>427900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>424600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>583400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>611500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>604300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>606900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>397800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3038,64 +3160,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6991600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7439100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7694300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7790500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8012000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7916400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7988200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6570500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7536700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7319900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7013700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7040800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7188900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6782700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6875800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6822700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7232800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3116,8 +3244,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3138,87 +3267,91 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>865400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1028700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>954700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>944200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1210300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1073900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1066300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1094100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1554400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1366200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1082900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1197500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1455400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1168100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1178800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1179100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1621400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>1500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3229,8 +3362,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3250,232 +3383,247 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1842700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1472300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1506900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1520800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1486200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1411700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1363300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>983600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1124700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1077900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1045100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>968200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>905700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>820900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>946200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>853400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>886000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2708500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2502500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2464000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2466500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2698000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2487100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2431100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2077600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2679000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2444000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2128100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2165700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2361100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1989000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2125000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2032500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2507400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1191500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1291800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1827000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1590800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1591100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1591300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1591600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1487900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1492400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1492300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1492200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1491800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1491700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1491600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1491500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1691700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1947700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1942300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1968200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1874700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1934200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1903500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>444600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>462000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>481100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>489300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>494400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>587000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>580100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>586500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>579300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>618900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3530,8 +3678,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,8 +3737,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3642,64 +3796,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5591700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5742100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6233300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6025600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6163800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6012700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5926200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4010200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4633500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4417500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4109600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4152200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4440000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4061000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4203200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4103400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4617800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3720,8 +3880,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3776,8 +3937,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3832,8 +3996,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3888,8 +4055,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3944,64 +4114,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10215700</v>
+      </c>
+      <c r="E72" s="3">
         <v>10290900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10072500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10374800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10460800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10521700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10679500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11112900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11388900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11386600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11360600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11343500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11170300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11130300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11057800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11003900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10753800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4056,8 +4232,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4112,8 +4291,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,64 +4350,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1697000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1461100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1764900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1848200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1903700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2062000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2560300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2903300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2902400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2904200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2888600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2748800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2721700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2672600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2719300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2615000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,125 +4468,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E80" s="2">
         <v>44072</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43981</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43617</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43526</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43435</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43344</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43253</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43162</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43064</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42973</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42882</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42791</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42700</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="E81" s="3">
         <v>217900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-302300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-65400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-138800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-371100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-253800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>194000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>94200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>75300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>268700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>126400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4419,64 +4616,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E83" s="3">
         <v>85300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>92300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>74900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4531,8 +4732,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4587,8 +4791,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4643,8 +4850,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4699,8 +4909,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4755,64 +4968,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E89" s="3">
         <v>546000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-392400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>329000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>90100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>252800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>394000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>245000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>367800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>127100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>274500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4833,64 +5052,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-56800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-83700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-97800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-87000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-80800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-470700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-91600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5168,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5001,64 +5227,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E94" s="3">
         <v>237300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>314600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-208300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>145200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>217600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-403100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-139700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>134700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-404400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-97100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-85100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-280300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5079,64 +5311,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-20800</v>
       </c>
       <c r="O96" s="3">
         <v>-20800</v>
       </c>
       <c r="P96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5427,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5247,8 +5486,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5303,172 +5545,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-226800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-467800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>212700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-103400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-103200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-65800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-77500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-135300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-189600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-94600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>320900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>131500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>275000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>202200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-253500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-106800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>190700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>332500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-107000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-104800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,265 +665,278 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E7" s="2">
         <v>44163</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44072</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43981</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43617</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43526</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43435</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43344</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43253</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43162</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43064</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42973</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42882</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42791</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42700</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2619100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2618500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2688000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1307400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3106800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2759300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2719400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2573000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3307900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3032200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2935000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2753700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3716300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2954500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2936400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2742100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3534000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2955500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1793700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1661900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>959000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2093200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1845500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1992500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1685800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2161000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2028500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1946500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1788800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2383000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1913500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1867800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1742000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2190900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1862700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>825400</v>
+      </c>
+      <c r="E10" s="3">
         <v>956600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>987600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>348400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1013600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>913800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>726900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>887200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1146900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1003700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>988500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>964900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1333300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1068600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1343100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1092800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,8 +958,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1018,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,37 +1080,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E14" s="3">
         <v>187700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-214700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>62400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>67800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>401300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>509900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1101,8 +1121,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1122,8 +1142,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,10 +1154,10 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -1148,8 +1171,8 @@
       <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>600</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1183,8 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1181,8 +1204,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1201,126 +1227,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2642800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2741300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2340400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1768400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3188000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2789100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2901700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2979800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3604600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2982700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2856200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2672400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3379200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2846200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2767500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2595100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3104000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2744200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-122800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>347600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-461000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-81200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-182300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-406800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-296700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>49500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>337100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>108300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>168900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>147000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>430000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>211300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1342,8 +1375,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1401,244 +1435,259 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>432900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-377300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-97800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-323300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-204400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>422800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>187300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>242400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>221900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>505700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>285200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E22" s="3">
         <v>17800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-140700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>324200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-478100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-96600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-198600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-422700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-312200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>64200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>320800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>149700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>130400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>413100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>193000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-64500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>106300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-132800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-31200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-59800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-51700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-58400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>116300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>144400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,126 +1745,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-76100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>217900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-345300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-65400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-138800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-371100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-253800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>204500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>75300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>268700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>126400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-76100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>217900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-345300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-138800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-371100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-253800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>204500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>94200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>268700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>126400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,22 +1931,25 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E29" s="3">
         <v>700</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>43000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1911,11 +1972,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1932,8 +1993,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1991,8 +2055,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2050,8 +2117,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2109,67 +2179,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-75400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>217900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-302300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-65400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-138800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-371100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-253800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>94200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>268700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>126400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2227,131 +2303,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-75400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>217900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-302300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-65400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-138800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-371100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-253800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>94200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>268700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>126400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E38" s="2">
         <v>44163</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44072</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43981</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43617</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43526</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43435</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43344</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43253</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43162</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43064</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42973</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42882</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42791</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42700</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2373,8 +2458,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2396,67 +2482,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1353000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1462600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1441800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1121000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>983800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>509000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>762500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>869300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>678600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>346100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>453100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>464100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>469300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>488300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>473000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2467,37 +2557,37 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>29500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>385600</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>201700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>485800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>238300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>205900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>148300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>378000</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2505,8 +2595,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2514,8 +2604,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2573,303 +2666,321 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1671900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1780900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2052000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2240400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2093900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2543200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2334900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2540900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2618900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3005500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2813600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2646300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2730900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3199700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2878600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2962900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2905700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3268600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>595200</v>
+      </c>
+      <c r="E45" s="3">
         <v>721000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>249700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>425300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>346400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>361100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>301400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>254200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>296300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>474300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>387300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>483200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>516000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>287700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>187700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>217900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>395800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>528500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3964500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3743600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3816200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3826300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3804400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3620200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3697100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3910000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4480600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4276100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3956400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3971100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3940500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3530400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3650200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3591900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4270100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E47" s="3">
         <v>19800</v>
-      </c>
-      <c r="E47" s="3">
-        <v>19900</v>
       </c>
       <c r="F47" s="3">
         <v>19900</v>
       </c>
       <c r="G47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H47" s="3">
         <v>20400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>99200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>86400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2505500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2521200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3209700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3265500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3437600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3696600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3785300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3813600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1853100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1866100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1882000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1893200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1909300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1841000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1834500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1817600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1837100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1769100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2877,14 +2988,14 @@
         <v>22000</v>
       </c>
       <c r="E49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F49" s="3">
         <v>58500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>85700</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
@@ -2895,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>391100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>716300</v>
       </c>
       <c r="M49" s="3">
         <v>716300</v>
@@ -2913,22 +3024,25 @@
         <v>716300</v>
       </c>
       <c r="Q49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="R49" s="3">
         <v>707100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>707600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>697100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>709400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2986,8 +3100,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3045,67 +3162,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>289800</v>
+      </c>
+      <c r="E52" s="3">
         <v>464000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>407500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>507000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>506300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>490900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>490400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>456800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>396400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>453900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>425700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>427900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>424600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>583400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>611500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>604300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>606900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>397800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3163,67 +3286,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6456900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6991600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7439100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7694300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7790500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8012000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7916400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7988200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6570500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7536700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7319900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7013700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7040800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7188900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6782700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6875800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6822700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7232800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3245,8 +3374,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3268,93 +3398,97 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>986000</v>
+      </c>
+      <c r="E57" s="3">
         <v>865400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1028700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>954700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>944200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1210300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1073900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1066300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1094100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1554400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1366200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1082900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1197500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1455400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1168100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1178800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1179100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1621400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>1500</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3365,8 +3499,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3386,244 +3520,259 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1308900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1842700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1472300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1506900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1520800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1486200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1411700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1363300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>983600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1124700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1077900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1045100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>968200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>905700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>820900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>946200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>853400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>886000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2294900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2708500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2502500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2464000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2466500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2698000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2487100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2431100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2077600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2679000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2444000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2128100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2165700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2361100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1989000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2125000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2032500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2507400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1190400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1191500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1291800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1827000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1590800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1591100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1591300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1591600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1487900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1492400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1492300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1491800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1491700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1491600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1491500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1691700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1947700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1942300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1968200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1874700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1934200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1903500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>444600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>462000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>481100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>489300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>494400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>587000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>580100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>586500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>579300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>618900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3681,8 +3830,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3740,8 +3892,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3799,67 +3954,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5591700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5742100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6233300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6025600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6163800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6012700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5926200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4010200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4633500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4417500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4109600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4152200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4440000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4061000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4203200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4103400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4617800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3881,8 +4042,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3940,8 +4102,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3999,8 +4164,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4058,8 +4226,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4117,67 +4288,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10225300</v>
+      </c>
+      <c r="E72" s="3">
         <v>10215700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10290900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10072500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10374800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10460800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10521700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10679500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11112900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11388900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11386600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11360600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11343500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11170300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11130300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11057800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11003900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10753800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4235,8 +4412,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4294,8 +4474,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4353,67 +4536,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1276900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1697000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1461100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1764900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1848200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1903700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2062000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2560300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2903300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2902400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2904200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2888600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2748800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2721700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2672600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2719300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2615000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4471,131 +4660,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E80" s="2">
         <v>44163</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44072</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43981</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43617</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43526</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43435</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43344</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43253</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43162</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43064</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42973</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42882</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42791</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42700</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-75400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>217900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-302300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-65400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-138800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-371100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-253800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>94200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>268700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>126400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4617,67 +4815,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E83" s="3">
         <v>93700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>84400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>92300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>79600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>73600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>74900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4735,8 +4937,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4794,8 +4999,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4853,8 +5061,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4912,8 +5123,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4971,67 +5185,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E89" s="3">
         <v>43500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>546000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-392400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>329000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>90100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>394000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>245000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>367800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>127100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>274500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5053,67 +5273,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-89000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-56800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-68900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-74900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-83700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-97800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-96200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-80800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-470700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-91600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5171,8 +5395,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5230,67 +5457,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>199900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>237300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>314600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-208300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>145200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>217600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-403100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-139700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>134700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-404400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-97100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-85100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-280300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5312,67 +5545,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-22000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-20800</v>
       </c>
       <c r="P96" s="3">
         <v>-20800</v>
       </c>
       <c r="Q96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="R96" s="3">
         <v>-21100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5430,8 +5667,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5489,8 +5729,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5548,181 +5791,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-226800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-467800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>212700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-103400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-103200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-65800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-77500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-135300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-189600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-94600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E102" s="3">
         <v>18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>320900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>131500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-83800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>275000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>202200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-253500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-106800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>190700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>332500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-107000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-104800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,278 +665,291 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E7" s="2">
         <v>44254</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44163</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44072</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43981</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43617</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43526</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43435</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43344</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43253</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43162</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43064</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42973</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42882</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42791</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42700</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1953800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2619100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2618500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2688000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1307400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3106800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2759300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2719400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2573000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3307900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3032200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2935000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2753700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3716300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2954500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2936400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2742100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3534000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2955500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1793700</v>
+        <v>1272800</v>
       </c>
       <c r="E9" s="3">
-        <v>1661900</v>
+        <v>1760500</v>
       </c>
       <c r="F9" s="3">
+        <v>1648000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1700400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>959000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2093200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1845500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1992500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1685800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2161000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2028500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1946500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1788800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2383000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1913500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1867800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1742000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2190900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1862700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>825400</v>
+        <v>681000</v>
       </c>
       <c r="E10" s="3">
-        <v>956600</v>
+        <v>858600</v>
       </c>
       <c r="F10" s="3">
+        <v>970500</v>
+      </c>
+      <c r="G10" s="3">
         <v>987600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>348400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1013600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>913800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>726900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>887200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1146900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1003700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>988500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>964900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1333300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1041000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1068600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1343100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1092800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,8 +972,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,8 +1035,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1083,40 +1100,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>126200</v>
+        <v>92000</v>
       </c>
       <c r="E14" s="3">
-        <v>187700</v>
+        <v>114300</v>
       </c>
       <c r="F14" s="3">
+        <v>201600</v>
+      </c>
+      <c r="G14" s="3">
         <v>-214700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>62400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>67800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>401300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>509900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1124,8 +1144,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1145,22 +1165,25 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>600</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
@@ -1174,8 +1197,8 @@
       <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>600</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1186,8 +1209,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1207,8 +1230,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1228,132 +1254,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2025900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2642800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2741300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2340400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1768400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3188000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2789100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2901700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2979800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3604600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2982700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2856200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2672400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3379200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2846200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2767500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2595100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3104000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2744200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-122800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>347600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-461000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-81200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-182300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-406800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-296700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>337100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>108300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>168900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>147000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>430000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>211300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1376,8 +1409,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,256 +1472,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>54700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>432900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-377300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-97800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-323300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-204400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>422800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>187300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>242400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>221900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>505700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>285200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-140700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>324200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-478100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-96600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-198600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-422700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-312200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>320800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>94700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>149700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>130400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>413100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>193000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-54000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-64500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>106300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-132800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-31200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-59800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-51700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-58400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>116300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>144400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1748,132 +1797,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E26" s="3">
         <v>11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-76100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>217900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-345300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-138800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-371100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-253800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>43600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>204500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>75300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>268700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>126400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-76100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>217900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-345300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-138800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-371100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-253800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>43600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>204500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>94200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>75300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>268700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>126400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1934,25 +1992,28 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>700</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>43000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1975,11 +2036,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1996,8 +2057,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2122,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2120,8 +2187,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2182,70 +2252,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E33" s="3">
         <v>9100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-75400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>217900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-302300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-138800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-371100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-253800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>94200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>75300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>268700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>126400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2306,137 +2382,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E35" s="3">
         <v>9100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-75400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>217900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-302300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-138800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-371100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-253800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>94200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>75300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>268700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>126400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E38" s="2">
         <v>44254</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44163</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44072</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43981</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43617</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43526</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43435</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43344</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43253</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43162</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43064</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42973</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42882</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42791</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42700</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2459,8 +2544,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2483,75 +2569,79 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1097300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1353000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1462600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1441800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1121000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>983800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>509000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>762500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>869300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>678600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>346100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>453100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>464100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>469300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>488300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>473000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2560,37 +2650,37 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>29500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>385600</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>201700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>485800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>238300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>205900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>148300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>378000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2598,8 +2688,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2607,8 +2697,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2669,194 +2762,206 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1563600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1671900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1780900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2052000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2240400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2093900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2543200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2334900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2540900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2618900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3005500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2813600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2646300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2730900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3199700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2878600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2962900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2905700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3268600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E45" s="3">
         <v>595200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>721000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>249700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>425300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>346400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>361100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>301400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>254200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>296300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>474300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>387300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>483200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>516000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>287700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>187700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>217900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>395800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>528500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3206900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3620000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3964500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3743600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3816200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3826300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3804400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3620200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3697100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3910000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4480600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4276100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3956400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3971100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3940500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3530400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3650200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3591900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4270100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2864,141 +2969,147 @@
         <v>19500</v>
       </c>
       <c r="E47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F47" s="3">
         <v>19800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>19900</v>
       </c>
       <c r="G47" s="3">
         <v>19900</v>
       </c>
       <c r="H47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I47" s="3">
         <v>20400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>96100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>89600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>86400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2513500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2505500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2521200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3209700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3265500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3437600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3696600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3785300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3813600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1853100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1866100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1882000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1893200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1909300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1841000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1834500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1817600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1837100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1769100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22000</v>
+        <v>19800</v>
       </c>
       <c r="E49" s="3">
         <v>22000</v>
       </c>
       <c r="F49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G49" s="3">
         <v>58500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>85700</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
@@ -3009,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>391100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>716300</v>
       </c>
       <c r="N49" s="3">
         <v>716300</v>
@@ -3027,22 +3138,25 @@
         <v>716300</v>
       </c>
       <c r="R49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="S49" s="3">
         <v>707100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>707600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>697100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>709400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3103,8 +3217,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3165,70 +3282,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>293700</v>
+      </c>
+      <c r="E52" s="3">
         <v>289800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>464000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>407500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>507000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>506300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>490900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>490400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>456800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>396400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>453900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>425700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>427900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>424600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>583400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>611500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>604300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>606900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>397800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3289,70 +3412,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6053300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6456900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6991600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7439100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7694300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7790500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8012000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7916400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7988200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6570500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7536700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7319900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7013700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7040800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7188900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6782700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6875800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6822700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7232800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3375,8 +3504,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3399,99 +3529,103 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>889900</v>
+      </c>
+      <c r="E57" s="3">
         <v>986000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>865400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1028700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>954700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>944200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1210300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1073900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1066300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1094100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1554400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1366200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1082900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1197500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1455400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1168100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1178800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1179100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1621400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>1500</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3502,8 +3636,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3523,256 +3657,271 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1163600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1308900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1842700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1472300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1506900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1520800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1486200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1411700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1363300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>983600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1124700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1077900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1045100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>968200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>905700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>820900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>946200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>853400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>886000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2053500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2294900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2708500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2502500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2464000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2466500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2698000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2487100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2431100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2077600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2679000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2444000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2128100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2165700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2361100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1989000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2125000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2032500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2507400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1182600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1190400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1191500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1291800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1827000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1590800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1591100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1591300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1591600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1487900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1492400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1491800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1491700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1491600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1491500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1710400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1694700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1691700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1947700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1942300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1968200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1874700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1934200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1903500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>444600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>462000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>481100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>489300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>494400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>587000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>580100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>586500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>579300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>618900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3833,8 +3982,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3895,8 +4047,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3957,70 +4112,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4946500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5180000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5591700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5742100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6233300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6025600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6163800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6012700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5926200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4010200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4633500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4417500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4109600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4152200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4440000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4061000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4203200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4103400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4617800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4043,8 +4204,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4105,8 +4267,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4167,8 +4332,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4229,8 +4397,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4291,70 +4462,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10174700</v>
+      </c>
+      <c r="E72" s="3">
         <v>10225300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10215700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10290900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10072500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10374800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10460800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10521700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10679500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11112900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11388900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11386600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11360600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11343500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11170300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11130300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11057800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11003900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10753800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4415,8 +4592,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4657,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4539,70 +4722,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1106800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1276900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1697000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1461100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1764900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1848200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1903700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2062000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2560300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2903300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2902400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2904200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2888600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2748800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2721700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2672600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2719300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2615000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4663,137 +4852,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E80" s="2">
         <v>44254</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44163</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44072</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43981</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43617</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43526</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43435</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43344</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43253</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43162</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43064</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42973</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42882</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42791</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42700</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E81" s="3">
         <v>9100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-75400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>217900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-302300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-138800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-371100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-253800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>94200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>75300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>268700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>126400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4816,70 +5014,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E83" s="3">
         <v>78300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>92300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>73600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>74900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>73900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4940,8 +5142,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5002,8 +5207,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5064,8 +5272,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5126,8 +5337,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5188,70 +5402,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E89" s="3">
         <v>75700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>546000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-392400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>329000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>90100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>394000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>245000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>367800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>127100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>160100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>300600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>274500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5274,70 +5494,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-89000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-56800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-68400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-74900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-83700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-97800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-87000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-96200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-80800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-470700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-91600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5398,8 +5622,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5460,70 +5687,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>199900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>237300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>314600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-208300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>145200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>217600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-403100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-139700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>134700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-404400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-97100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-85100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-280300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5546,70 +5779,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-22000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-20800</v>
       </c>
       <c r="Q96" s="3">
         <v>-20800</v>
       </c>
       <c r="R96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="S96" s="3">
         <v>-21100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5670,8 +5907,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5732,8 +5972,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5794,190 +6037,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-150400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-226800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-467800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>212700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-38000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-103400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-103200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-77500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-135300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-189600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-94600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>9200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-87000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>320900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>131500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-83800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>275000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>202200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-253500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-106800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>190700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>332500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>15300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-104800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,291 +665,304 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E7" s="2">
         <v>44345</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44163</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44072</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43981</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43617</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43526</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43435</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43344</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43253</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43162</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43064</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42973</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42882</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42791</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42700</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1984700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1953800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2619100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2618500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2688000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1307400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3106800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2759300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2719400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2573000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3307900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3032200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2935000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2753700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3716300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2954500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2936400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2742100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3534000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2955500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1309900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1272800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1760500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1648000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>959000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2093200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1845500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1992500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1685800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2161000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2028500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1946500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1788800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2383000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1913500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1867800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1742000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2190900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1862700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>674800</v>
+      </c>
+      <c r="E10" s="3">
         <v>681000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>858600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>970500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>987600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>348400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1013600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>913800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>726900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>887200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1146900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1003700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>988500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>964900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1333300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1041000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1068600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1343100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1092800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,43 +1120,46 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E14" s="3">
         <v>92000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>114300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>201600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-214700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>62400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>67800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>401300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>509900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1147,8 +1167,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1168,25 +1188,28 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>600</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
       <c r="G15" s="3">
+        <v>600</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -1200,8 +1223,8 @@
       <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>600</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1212,8 +1235,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1233,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1255,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2068900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2025900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2642800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2741300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2340400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1768400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3188000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2789100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2901700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2979800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3604600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2982700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2856200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2672400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3379200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2846200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2767500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2595100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3104000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2744200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-72100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-122800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>347600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-461000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-81200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-29800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-182300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-406800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-296700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>337100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>108300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>168900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>147000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>430000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>211300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1410,8 +1443,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,268 +1509,283 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>432900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-377300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-97800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-323300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-204400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>422800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>187300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>242400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>221900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>505700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>285200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E22" s="3">
         <v>16000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-88100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-140700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>324200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-478100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-96600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-198600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-422700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-312200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>320800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>94700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>149700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>130400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>413100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>193000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-64500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>106300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-132800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-31200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-59800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-51700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-58400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>116300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>144400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>66600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-76100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>217900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-345300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-65400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-138800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-371100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-253800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>43600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>204500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>75300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>268700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>126400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-76100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>217900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-345300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-65400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-138800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-371100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-253800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>43600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>204500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>94200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>75300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>268700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>126400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1995,28 +2053,31 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
         <v>15600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>700</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>43000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2039,11 +2100,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2060,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2190,8 +2257,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2255,73 +2325,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-75400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>217900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-302300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-65400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-138800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-371100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-253800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>94200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>75300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>268700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>126400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2385,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-75400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>217900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-302300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-65400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-138800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-371100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-253800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>94200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>75300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>268700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>126400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E38" s="2">
         <v>44345</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44254</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44163</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44072</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43981</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43617</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43526</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43435</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43344</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43253</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43162</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43064</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42973</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42882</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42791</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42700</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2545,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2570,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>970600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1097300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1353000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1462600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1441800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1121000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>983800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>509000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>762500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>869300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>678600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>346100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>453100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>464100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>469300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>488300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>473000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2734,7 @@
         <v>30000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2653,37 +2743,37 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>29500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>385600</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>201700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>485800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>238300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>205900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>148300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>378000</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2691,8 +2781,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2700,8 +2790,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2765,203 +2858,215 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1563600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1671900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1780900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2052000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2240400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2093900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2543200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2334900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2540900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2618900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3005500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2813600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2646300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2730900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3199700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2878600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2962900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2905700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3268600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>510100</v>
+      </c>
+      <c r="E45" s="3">
         <v>516000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>595200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>721000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>249700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>425300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>346400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>361100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>301400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>254200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>296300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>474300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>387300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>483200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>516000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>287700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>187700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>217900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>395800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>528500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3101400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3206900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3620000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3964500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3743600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3816200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3826300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3804400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3620200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3697100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3910000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4480600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4276100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3956400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3971100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3940500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3530400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3650200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3591900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4270100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2972,147 +3077,153 @@
         <v>19500</v>
       </c>
       <c r="F47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G47" s="3">
         <v>19800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>19900</v>
       </c>
       <c r="H47" s="3">
         <v>19900</v>
       </c>
       <c r="I47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J47" s="3">
         <v>20400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>99200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>96100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>89600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>86400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2587100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2513500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2505500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2521200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3209700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3265500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3437600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3696600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3785300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3813600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1853100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1866100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1882000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1893200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1909300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1841000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1834500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1817600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1837100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1769100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>22000</v>
       </c>
       <c r="F49" s="3">
         <v>22000</v>
       </c>
       <c r="G49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="3">
         <v>58500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>85700</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
@@ -3123,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>391100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>716300</v>
       </c>
       <c r="O49" s="3">
         <v>716300</v>
@@ -3141,22 +3252,25 @@
         <v>716300</v>
       </c>
       <c r="S49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="T49" s="3">
         <v>707100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>707600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>697100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>709400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3220,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3285,73 +3402,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E52" s="3">
         <v>293700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>289800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>464000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>407500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>507000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>506300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>490900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>490400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>456800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>396400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>453900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>425700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>427900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>424600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>583400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>611500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>604300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>606900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>397800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3415,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6067500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6053300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6456900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6991600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7439100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7694300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7790500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8012000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7916400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7988200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6570500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7536700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7319900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7013700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7040800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7188900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6782700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6875800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6822700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7232800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3505,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3530,105 +3660,109 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>991500</v>
+      </c>
+      <c r="E57" s="3">
         <v>889900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>986000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>865400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1028700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>954700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>944200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1210300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1073900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1066300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1094100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1554400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1366200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1082900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1197500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1455400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1168100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1178800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1179100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1621400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>1500</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3639,8 +3773,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3660,268 +3794,283 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1175300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1163600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1308900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1842700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1472300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1506900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1520800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1486200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1411700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1363300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>983600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1124700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1077900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1045100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>968200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>905700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>820900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>946200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>853400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>886000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2166800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2053500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2294900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2708500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2502500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2464000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2466500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2698000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2487100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2431100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2077600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2679000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2444000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2128100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2165700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2361100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1989000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2125000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2032500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2507400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1179600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1182600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1190400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1191500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1291800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1827000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1590800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1591100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1591300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1591600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1487900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1492400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1491800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1491700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1491600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1491500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1786900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1710400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1694700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1691700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1947700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1942300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1968200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1874700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1934200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1903500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>444600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>462000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>481100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>489300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>494400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>587000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>580100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>586500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>579300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>618900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3985,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4050,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4115,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5133300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4946500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5180000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5591700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5742100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6233300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6025600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6163800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6012700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5926200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4010200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4633500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4417500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4109600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4152200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4440000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4061000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4203200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4103400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4617800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4205,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4270,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4335,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4400,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4465,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10101500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10174700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10225300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10215700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10290900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10072500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10374800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10460800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10521700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10679500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11112900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11388900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11386600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11360600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11343500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11170300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11130300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11057800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11003900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10753800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4595,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4660,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>934200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1106800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1276900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1697000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1461100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1764900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1848200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1903700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2062000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2560300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2903300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2902400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2904200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2888600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2748800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2721700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2672600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2719300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2615000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4855,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E80" s="2">
         <v>44345</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44254</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44163</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44072</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43981</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43617</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43526</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43435</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43344</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43253</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43162</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43064</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42973</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42882</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42791</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42700</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-75400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>217900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-302300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-65400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-138800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-371100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-253800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>94200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>75300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>268700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>126400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5015,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E83" s="3">
         <v>68300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>85300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>92300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>85700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>74900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>73900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5145,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5210,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5275,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5340,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5405,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>75700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>546000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-392400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>329000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>165800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>90100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>252800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>394000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>245000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>367800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>127100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>160100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>204600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>300600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>274500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5495,73 +5715,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-89000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-68400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-68900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-74900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-83700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-97800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-87000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-96200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-80800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-470700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-91600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5625,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5690,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>199900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>237300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>314600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-208300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>145200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>217600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-403100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-139700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>134700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-404400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-97100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-85100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-280300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5780,73 +6013,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-21200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-20800</v>
       </c>
       <c r="R96" s="3">
         <v>-20800</v>
       </c>
       <c r="S96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="T96" s="3">
         <v>-21100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5910,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5975,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6040,199 +6283,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-147400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-150400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-226800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-467800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>212700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-38000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-103400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-103200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-44800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-77500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-135300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-189600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-94600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-273600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-87000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>320900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-83800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>275000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>202200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-253500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-106800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>190700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>332500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-107000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>15300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-104800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,316 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E7" s="2">
         <v>44436</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44345</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44254</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44163</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44072</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43981</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43617</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43526</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43435</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43344</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43253</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43162</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43064</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42973</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42882</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42791</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42700</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1877900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1984700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1953800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2619100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2618500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2688000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1307400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3106800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2759300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2719400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2573000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3307900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3032200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2935000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2753700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3716300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2954500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2936400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2742100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3534000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2955500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1161700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1309900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1272800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1760500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1648000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>959000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2093200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1845500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1992500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1685800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2161000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2028500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1946500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1788800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2383000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1913500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1867800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1742000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2190900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1862700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>716200</v>
+      </c>
+      <c r="E10" s="3">
         <v>674800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>681000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>858600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>970500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>987600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>348400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1013600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>913800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>726900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>887200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1146900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1003700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>988500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>964900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1333300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1041000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1068600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1343100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1092800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +999,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1068,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,46 +1139,49 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E14" s="3">
         <v>103700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>92000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>114300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>201600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-214700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>62400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>67800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>401300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>509900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1170,8 +1189,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1191,8 +1210,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,17 +1224,17 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>600</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
       </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1226,8 +1248,8 @@
       <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>600</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1238,8 +1260,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1259,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1964000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2068900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2025900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2642800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2741300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2340400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1768400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3188000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2789100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2901700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2979800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3604600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2982700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2856200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2672400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3379200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2846200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2767500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2595100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3104000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2744200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-84200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-72100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-122800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>347600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-461000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-81200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-29800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-182300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-406800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-296700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>337100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>108300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>147000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>430000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>211300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,8 +1476,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1512,280 +1545,295 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>432900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-377300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-97800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-323300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-204400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>422800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>187300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>242400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>221900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>505700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>285200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E22" s="3">
         <v>16100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-88100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-140700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>324200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-478100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-96600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-198600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-422700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-312200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>320800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>149700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>130400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>413100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>193000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>176900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-26500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-21700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-54000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-64500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>106300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-132800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-59800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-51700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-58400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>116300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>144400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>66600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-278800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-76100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>217900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-345300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-65400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-138800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-371100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-253800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>204500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>75300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>268700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>126400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-278800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-76100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>217900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-345300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-65400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-138800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-371100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-253800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>204500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>94200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>75300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>268700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>126400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,31 +2113,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E29" s="3">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>15600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>700</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>43000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2103,11 +2163,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2124,8 +2184,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,8 +2326,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2328,76 +2397,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-276400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-75400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>217900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-302300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-65400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-138800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-371100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-253800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>194000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>94200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>75300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>268700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>126400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-276400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-75400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>217900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-302300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-65400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-138800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-371100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-253800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>194000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>94200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>75300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>268700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>126400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E38" s="2">
         <v>44436</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44345</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44254</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44163</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44072</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43981</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43617</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43526</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43435</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43344</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43253</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43162</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43064</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42973</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42882</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42791</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42700</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,87 +2742,91 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>509100</v>
+      </c>
+      <c r="E41" s="3">
         <v>970600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1097300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1353000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1462600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1441800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1121000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>983800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>509000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>762500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>869300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>678600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>346100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>453100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>464100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>469300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>488300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>473000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>30000</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>30000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2746,37 +2835,37 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>29500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>385600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>201700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>485800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>238300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>205900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>148300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>378000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2784,8 +2873,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2793,8 +2882,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2861,217 +2953,229 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1911900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1590700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1563600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1671900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1780900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2052000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2240400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2093900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2543200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2334900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2540900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2618900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3005500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2813600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2646300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2730900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3199700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2878600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2962900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2905700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3268600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>526500</v>
+      </c>
+      <c r="E45" s="3">
         <v>510100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>516000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>595200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>721000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>249700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>425300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>346400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>361100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>301400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>254200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>296300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>474300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>387300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>483200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>516000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>287700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>187700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>217900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>395800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>528500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2947500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3101400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3206900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3620000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3964500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3743600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3816200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3826300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3804400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3620200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3697100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3910000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4480600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4276100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3956400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3971100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3940500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3530400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3650200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3591900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4270100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="E47" s="3">
         <v>19500</v>
@@ -3080,153 +3184,159 @@
         <v>19500</v>
       </c>
       <c r="G47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H47" s="3">
         <v>19800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>19900</v>
       </c>
       <c r="I47" s="3">
         <v>19900</v>
       </c>
       <c r="J47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K47" s="3">
         <v>20400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>107700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>99200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>96100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>89600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>86400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2527500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2587100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2513500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2505500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2521200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3209700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3265500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3437600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3696600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3785300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3813600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1853100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1866100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1882000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1893200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1909300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1841000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1834500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1817600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1837100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1769100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>22000</v>
       </c>
       <c r="G49" s="3">
         <v>22000</v>
       </c>
       <c r="H49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I49" s="3">
         <v>58500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>85700</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
@@ -3237,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>391100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>716300</v>
       </c>
       <c r="P49" s="3">
         <v>716300</v>
@@ -3255,22 +3365,25 @@
         <v>716300</v>
       </c>
       <c r="T49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="U49" s="3">
         <v>707100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>707600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>697100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>709400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,76 +3521,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E52" s="3">
         <v>340300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>293700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>289800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>464000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>407500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>507000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>506300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>490900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>490400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>456800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>396400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>453900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>425700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>427900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>424600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>583400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>611500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>604300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>606900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>397800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3663,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5656600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6067500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6053300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6456900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6991600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7439100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7694300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7790500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8012000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7916400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7988200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6570500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7536700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7319900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7013700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7040800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7188900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6782700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6875800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6822700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7232800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,76 +3790,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>908100</v>
+      </c>
+      <c r="E57" s="3">
         <v>991500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>889900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>986000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>865400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1028700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>954700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>944200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1210300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1073900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1066300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1094100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1554400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1366200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1082900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1197500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1455400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1168100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1178800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1179100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1621400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3740,32 +3873,32 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>1500</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3776,8 +3909,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3797,280 +3930,295 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1310900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1175300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1163600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1308900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1842700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1472300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1506900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1520800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1486200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1411700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1363300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>983600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1124700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1077900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1045100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>968200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>905700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>820900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>946200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>853400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>886000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2166800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2053500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2294900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2708500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2502500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2464000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2466500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2698000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2487100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2431100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2077600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2679000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2444000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2128100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2165700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2361100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1989000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2125000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2032500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2507400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1179700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1179600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1182600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1190400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1191500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1291800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1827000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1590800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1591100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1591300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1591600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1487900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1492400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1491800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1491700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1491600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1491500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1704400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1786900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1710400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1694700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1691700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1947700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1942300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1968200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1874700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1934200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1903500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>444600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>462000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>481100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>489300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>494400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>587000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>580100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>586500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>579300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>618900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4427,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5103000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5133300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4946500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5180000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5591700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5742100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6233300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6025600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6163800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6012700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5926200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4010200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4633500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4417500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4109600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4152200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4440000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4061000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4203200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4103400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4617800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4809,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9825200</v>
+      </c>
+      <c r="E72" s="3">
         <v>10101500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10174700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10225300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10215700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10290900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10072500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10374800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10460800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10521700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10679500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11112900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11388900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11386600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11360600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11343500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11170300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11130300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11057800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11003900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10753800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5093,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>553600</v>
+      </c>
+      <c r="E76" s="3">
         <v>934200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1106800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1276900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1697000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1461100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1764900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1848200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1903700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2062000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2560300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2903300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2902400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2904200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2888600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2748800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2721700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2672600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2719300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2615000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E80" s="2">
         <v>44436</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44345</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44254</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44163</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44072</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43981</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43617</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43526</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43435</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43344</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43253</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43162</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43064</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42973</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42882</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42791</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42700</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-276400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-75400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>217900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-302300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-65400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-138800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-371100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-253800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>194000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>94200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>75300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>268700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>126400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E83" s="3">
         <v>70100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>85300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>87100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>84400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>92300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>79600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>85700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>74900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>75800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>73900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-310800</v>
+      </c>
+      <c r="E89" s="3">
         <v>74800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>75700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>546000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-392400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>329000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>165800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>252800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>394000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>245000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>367800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>127100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>160100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>204600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>274500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5935,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-68400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-68900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-83700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-97800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-87000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-96200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-80800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-470700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-91600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-71000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-103500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>199900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>237300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>314600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-208300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>145200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>217600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-403100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-139700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>134700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-404400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-97100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-85100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-97900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-280300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6246,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6023,67 +6256,70 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-21200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-20800</v>
       </c>
       <c r="S96" s="3">
         <v>-20800</v>
       </c>
       <c r="T96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="U96" s="3">
         <v>-21100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,208 +6528,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-147400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-226800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-467800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>212700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-103400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-103200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-77500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-135300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-189600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-94600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-484400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-108800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-273600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-87000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>320900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>275000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>202200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-253500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-106800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>190700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>332500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-107000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>15300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-104800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,329 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E7" s="2">
         <v>44527</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44436</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44345</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44254</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44163</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44072</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43981</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43617</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43526</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43435</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43344</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43253</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43162</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43064</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42973</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42882</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42791</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42700</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2051400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1877900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1984700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1953800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2619100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2618500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2688000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1307400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3106800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2759300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2719400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2573000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3307900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3032200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2935000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2753700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3716300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2954500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2936400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2742100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3534000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2955500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1161700</v>
+        <v>1461500</v>
       </c>
       <c r="E9" s="3">
+        <v>1202900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1309900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1272800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1760500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1648000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>959000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2093200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1845500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1992500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1685800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2161000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2028500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1946500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1788800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2383000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1913500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1867800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1742000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2190900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1862700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>716200</v>
+        <v>589900</v>
       </c>
       <c r="E10" s="3">
+        <v>675000</v>
+      </c>
+      <c r="F10" s="3">
         <v>674800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>681000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>858600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>970500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>987600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>348400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1013600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>913800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>726900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>887200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1146900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1003700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>988500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>964900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1333300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1041000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1068600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1000100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1343100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1092800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1013,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1085,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,49 +1159,52 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>103600</v>
+        <v>68700</v>
       </c>
       <c r="E14" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F14" s="3">
         <v>103700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>92000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>114300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>201600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-214700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>62400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>67800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>401300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>509900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1192,8 +1212,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1213,13 +1233,16 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1227,17 +1250,17 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>600</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
       </c>
       <c r="I15" s="3">
+        <v>600</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1251,8 +1274,8 @@
       <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>600</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1286,8 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1284,8 +1307,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1334,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2216900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1964000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2068900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2025900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2642800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2741300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2340400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1768400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3188000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2789100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2901700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2979800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3604600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2982700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2856200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2672400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3379200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2846200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2767500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2595100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3104000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2744200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-165500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-86100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-84200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-122800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>347600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-461000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-81200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-406800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-296700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>337100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>108300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>147000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>430000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>211300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,8 +1510,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1548,292 +1582,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>432900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-377300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-97800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-323300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-204400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>422800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>187300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>242400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>221900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>505700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>285200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E22" s="3">
         <v>15800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-182300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-101900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-88100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-140700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>324200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-478100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-96600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-198600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-422700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-312200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>320800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>149700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>130400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>413100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>193000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E24" s="3">
         <v>176900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-26500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-21700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-54000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-64500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>106300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-132800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-31200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-59800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-51700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-58400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>116300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>55100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>144400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>66600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,150 +1952,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-278800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-76100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>217900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-345300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-138800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-371100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-253800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>204500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>75300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>268700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>126400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-278800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-76100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>217900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-345300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-138800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-371100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-253800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>204500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>94200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>75300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>268700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>126400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,34 +2174,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
         <v>2400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>15600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>43000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2166,11 +2227,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2187,8 +2248,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2322,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,8 +2396,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2400,79 +2470,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-159100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-276400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-75400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>217900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-302300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-138800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-371100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-253800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>194000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>94200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>268700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>126400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2542,155 +2618,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-159100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-276400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-75400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>217900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-302300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-138800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-371100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-253800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>194000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>94200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>268700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>126400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E38" s="2">
         <v>44527</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44436</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44345</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44254</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44163</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44072</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43981</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43617</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43526</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43435</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43344</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43253</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43162</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43064</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42973</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42882</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42791</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42700</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2801,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,93 +2829,97 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>439500</v>
+      </c>
+      <c r="E41" s="3">
         <v>509100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>970600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1097300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1353000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1462600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1441800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>983800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>509000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>762500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>869300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>678600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>346100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>453100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>464100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>469300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>488300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>473000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>30000</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>30000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2838,37 +2928,37 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>29500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>385600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>201700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>485800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>238300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>205900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>148300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>378000</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -2876,8 +2966,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2885,8 +2975,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2956,221 +3049,233 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1725400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1911900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1590700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1563600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1671900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1780900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2052000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2240400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2093900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2543200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2334900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2540900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2618900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3005500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2813600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2646300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2730900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3199700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2878600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2962900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2905700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3268600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E45" s="3">
         <v>526500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>510100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>516000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>595200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>721000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>249700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>425300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>346400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>361100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>301400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>254200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>296300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>474300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>387300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>483200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>516000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>287700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>187700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>217900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>395800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>528500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2363200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2947500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3101400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3206900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3620000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3964500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3743600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3816200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3826300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3804400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3620200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3697100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3910000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4480600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4276100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3956400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3971100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3940500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3530400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3650200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3591900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4270100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3178,7 +3283,7 @@
         <v>19200</v>
       </c>
       <c r="E47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="F47" s="3">
         <v>19500</v>
@@ -3187,159 +3292,165 @@
         <v>19500</v>
       </c>
       <c r="H47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I47" s="3">
         <v>19800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>19900</v>
       </c>
       <c r="J47" s="3">
         <v>19900</v>
       </c>
       <c r="K47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L47" s="3">
         <v>20400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>99200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>96100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>89600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>86400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2590200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2527500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2587100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2513500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2505500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2521200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3209700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3265500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3437600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3696600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3785300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3813600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1853100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1866100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1882000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1893200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1909300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1841000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1834500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1817600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1837100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1769100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>22000</v>
       </c>
       <c r="H49" s="3">
         <v>22000</v>
       </c>
       <c r="I49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J49" s="3">
         <v>58500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>85700</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
@@ -3350,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>391100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>716300</v>
       </c>
       <c r="Q49" s="3">
         <v>716300</v>
@@ -3368,22 +3479,25 @@
         <v>716300</v>
       </c>
       <c r="U49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="V49" s="3">
         <v>707100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>707600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>697100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>709400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3567,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3524,79 +3641,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>141700</v>
+      </c>
+      <c r="E52" s="3">
         <v>143300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>340300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>293700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>289800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>464000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>407500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>507000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>490900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>490400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>456800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>396400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>453900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>425700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>427900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>424600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>583400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>611500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>604300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>606900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>397800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,79 +3789,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5130600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5656600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6067500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6053300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6456900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6991600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7439100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7694300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7790500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8012000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7916400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7988200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6570500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7536700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7319900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7013700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7040800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7188900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6782700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6875800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6822700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7232800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3764,8 +3893,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3791,84 +3921,88 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>872400</v>
+      </c>
+      <c r="E57" s="3">
         <v>908100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>991500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>889900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>986000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>865400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1028700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>954700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>944200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1210300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1073900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1066300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1094100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1554400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1366200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1082900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1197500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1455400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1168100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1178800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1179100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1621400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>2500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3876,32 +4010,32 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>1500</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3912,8 +4046,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3933,292 +4067,307 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1199800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1310900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1175300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1163600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1308900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1842700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1472300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1506900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1520800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1486200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1411700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1363300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>983600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1124700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1077900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1045100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>968200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>905700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>820900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>946200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>853400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>886000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2074800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2219000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2166800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2053500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2294900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2708500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2502500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2464000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2466500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2698000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2487100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2431100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2077600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2679000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2444000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2128100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2165700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2361100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1989000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2125000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2032500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2507400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1215200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1179700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1179600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1182600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1190400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1191500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1291800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1827000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1590800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1591100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1591300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1591600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1487900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1492400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1492000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1491800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1491700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1491600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1491500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1666400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1704400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1786900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1710400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1694700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1691700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1947700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1942300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1968200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1874700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1934200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1903500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>444600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>462000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>481100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>489300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>494400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>587000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>580100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>586500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>579300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>618900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,8 +4437,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4359,8 +4511,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4430,79 +4585,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4956400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5103000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5133300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4946500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5180000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5591700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5742100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6233300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6025600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6163800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6012700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5926200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4010200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4633500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4417500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4109600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4152200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4440000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4061000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4203200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4103400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4617800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4528,8 +4689,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +4761,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,8 +4835,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4741,8 +4909,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4812,79 +4983,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9666100</v>
+      </c>
+      <c r="E72" s="3">
         <v>9825200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10101500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10174700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10225300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10215700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10290900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10072500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10374800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10460800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10521700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10679500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11112900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11388900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11386600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11360600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11343500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11170300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11130300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11057800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11003900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10753800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4954,8 +5131,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5205,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5096,79 +5279,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>174100</v>
+      </c>
+      <c r="E76" s="3">
         <v>553600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>934200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1106800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1276900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1697000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1461100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1764900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1848200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1903700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2062000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2560300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2903300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2902400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2904200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2888600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2748800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2721700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2672600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2719300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2615000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5238,155 +5427,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E80" s="2">
         <v>44527</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44436</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44345</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44254</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44163</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44072</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43981</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43617</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43526</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43435</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43344</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43253</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43162</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43064</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42973</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42882</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42791</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42700</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-159100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-276400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-75400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>217900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-302300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-138800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-371100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-253800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>194000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>94200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>268700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>126400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,79 +5610,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E83" s="3">
         <v>76400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>93700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>87400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>87100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>92300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>79600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>85700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>78900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>73600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>74900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>73900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5554,8 +5756,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5625,8 +5830,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5696,8 +5904,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5978,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5838,79 +6052,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>282600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-310800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>74800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>75700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>546000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-392400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>329000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>165800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>90100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>252800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>394000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>245000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>367800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>127100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>160100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>204600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>274500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5936,79 +6156,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-68400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-74900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-83700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-97800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-87000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-96200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-80800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-470700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6078,8 +6302,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6149,79 +6376,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-53000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>199900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>237300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>314600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-208300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>145200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>217600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-403100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-139700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>134700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-404400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-97100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-85100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-97900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-280300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6247,79 +6480,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
       </c>
       <c r="F96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-21200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-20800</v>
       </c>
       <c r="T96" s="3">
         <v>-20800</v>
       </c>
       <c r="U96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="V96" s="3">
         <v>-21100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6389,8 +6626,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6460,8 +6700,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6531,217 +6774,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-231500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-147400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-150400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-226800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-467800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>212700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-103400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-103200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-44800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-77500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-135300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-189600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-94600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-484400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-108800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-273600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-87000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>320900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>131500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>275000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>202200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-253500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-106800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>190700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>332500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-107000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>15300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-104800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,342 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E7" s="2">
         <v>44618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44527</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44436</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44345</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44254</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44163</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44072</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43981</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43617</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43526</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43435</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43344</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43253</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43162</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43064</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42973</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42882</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42791</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42700</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1463400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2051400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1877900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1984700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1953800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2619100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2618500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2688000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1307400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3106800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2759300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2719400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2573000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3307900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3032200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2935000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2753700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3716300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2954500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2936400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2742100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3534000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2955500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1461500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1202900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1309900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1272800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1760500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1648000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1700400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>959000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2093200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1845500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1992500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1685800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2161000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2028500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1946500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1788800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2383000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1913500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1867800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1742000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2190900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1862700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>348100</v>
+      </c>
+      <c r="E10" s="3">
         <v>589900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>675000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>674800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>681000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>858600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>970500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>987600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>348400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1013600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>913800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>726900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>887200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1146900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1003700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>988500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>964900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1333300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1041000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1068600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1000100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1343100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1092800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1027,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1102,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,52 +1179,55 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E14" s="3">
         <v>68700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>62400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>103700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>92000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>114300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>201600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-214700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>62400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>67800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>401300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>509900</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1215,8 +1235,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1236,16 +1256,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1253,17 +1276,17 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>600</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>600</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
@@ -1277,8 +1300,8 @@
       <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>600</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1289,8 +1312,8 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1310,8 +1333,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1335,156 +1361,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1802600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2216900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1964000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2068900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2025900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2642800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2741300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2340400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1768400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3188000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2789100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2901700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2979800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3604600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2982700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2856200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2672400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3379200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2846200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2767500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2595100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3104000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2744200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-339200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-165500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-86100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-84200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-72100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-122800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>347600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-461000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-81200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-29800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-182300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-406800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-296700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>49500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>337100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>108300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>168900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>147000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>430000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>211300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,8 +1544,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,304 +1619,319 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-268100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-86600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>432900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-377300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-97800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-323300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-204400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>134300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>422800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>187300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>242400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>221900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>505700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>285200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E22" s="3">
         <v>16800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>18300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-182300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-101900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-88100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-42200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-140700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>324200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-478100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-96600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-198600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-422700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-312200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>320800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>94700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>149700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>130400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>413100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>193000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-23100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>176900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-26500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-64500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>106300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-132800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-31200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-59800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-51700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-58400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>116300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>55500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>55100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>144400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>66600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,156 +2004,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-357700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-159200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-278800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>217900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-345300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-138800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-371100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>204500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>61300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>75300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>268700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>126400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-357700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-159200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-278800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>217900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-345300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-138800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-371100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>204500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>94200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>75300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>268700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>126400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2177,37 +2235,40 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>2400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>15600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-2700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>43000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2230,11 +2291,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2251,8 +2312,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2389,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,8 +2466,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2473,82 +2543,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-357700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-159100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-276400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-75400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>217900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-302300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-138800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-371100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>194000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>94200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>75300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>268700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>126400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2621,161 +2697,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-357700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-159100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-276400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-75400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>217900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-302300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-138800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-371100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>194000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>94200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>75300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>268700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>126400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E38" s="2">
         <v>44618</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44527</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44436</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44345</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44254</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44163</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44072</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43981</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43617</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43526</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43435</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43344</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43253</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43162</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43064</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42973</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42882</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42791</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42700</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2802,8 +2887,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2830,82 +2916,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E41" s="3">
         <v>439500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>509100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>970600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1097300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1353000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1462600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1441800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>983800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>509000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>762500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>869300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>678600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>346100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>453100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>464100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>469300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>488300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>473000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2915,14 +3005,14 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>30000</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
         <v>30000</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2931,37 +3021,37 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>29500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>385600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>201700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>485800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>238300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>205900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>148300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>378000</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -2969,8 +3059,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2978,8 +3068,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3052,241 +3145,253 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1759600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1725400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1911900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1590700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1563600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1671900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1780900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2052000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2240400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2093900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2543200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2334900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2540900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2618900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3005500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2813600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2646300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2730900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3199700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2878600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2962900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2905700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3268600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E45" s="3">
         <v>198200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>526500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>510100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>516000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>595200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>721000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>249700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>425300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>346400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>361100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>301400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>254200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>296300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>474300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>387300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>483200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>516000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>287700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>187700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>217900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>395800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>528500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2057300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2363200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2947500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3101400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3206900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3620000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3964500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3743600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3816200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3826300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3804400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3620200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3697100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3910000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4480600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4276100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3956400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3971100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3940500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3530400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3650200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3591900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4270100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="E47" s="3">
         <v>19200</v>
       </c>
       <c r="F47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="G47" s="3">
         <v>19500</v>
@@ -3295,165 +3400,171 @@
         <v>19500</v>
       </c>
       <c r="I47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J47" s="3">
         <v>19800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>19900</v>
       </c>
       <c r="K47" s="3">
         <v>19900</v>
       </c>
       <c r="L47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M47" s="3">
         <v>20400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>99200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>96100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>89600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>86400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2716700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2590200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2527500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2587100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2513500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2505500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2521200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3209700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3265500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3437600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3696600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3785300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3813600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1853100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1866100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1882000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1893200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1909300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1841000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1834500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1817600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1837100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1769100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E49" s="3">
         <v>16300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>22000</v>
       </c>
       <c r="I49" s="3">
         <v>22000</v>
       </c>
       <c r="J49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K49" s="3">
         <v>58500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>85700</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
@@ -3464,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>391100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>716300</v>
       </c>
       <c r="R49" s="3">
         <v>716300</v>
@@ -3482,22 +3593,25 @@
         <v>716300</v>
       </c>
       <c r="V49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="W49" s="3">
         <v>707100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>707600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>697100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>709400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3570,8 +3684,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3644,82 +3761,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142700</v>
+      </c>
+      <c r="E52" s="3">
         <v>141700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>143300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>340300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>293700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>289800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>464000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>407500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>507000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>506300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>490900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>490400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>456800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>396400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>453900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>425700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>427900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>424600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>583400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>611500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>604300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>606900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>397800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3792,82 +3915,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4949100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5130600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5656600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6067500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6053300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6456900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6991600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7439100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7694300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7790500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8012000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7916400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7988200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6570500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7536700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7319900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7013700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7040800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7188900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6782700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6875800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6822700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7232800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3894,8 +4023,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3922,90 +4052,94 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>816600</v>
+      </c>
+      <c r="E57" s="3">
         <v>872400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>908100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>991500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>889900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>986000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>865400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1028700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>954700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>944200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1210300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1073900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1066300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1094100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1554400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1366200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1082900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1197500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1455400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1168100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1178800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1179100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1621400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>2500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -4013,32 +4147,32 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1500</v>
       </c>
       <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>1500</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -4049,8 +4183,8 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4070,304 +4204,319 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1207400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1199800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1310900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1175300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1163600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1308900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1842700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1472300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1506900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1520800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1486200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1411700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1363300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>983600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1124700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1077900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1045100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>968200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>905700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>820900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>946200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>853400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>886000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2026500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2074800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2219000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2166800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2053500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2294900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2708500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2502500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2464000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2466500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2698000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2487100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2431100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2077600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2679000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2444000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2128100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2165700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2361100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1989000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2125000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2032500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2507400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1425300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1215200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1179700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1179600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1182600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1190400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1191500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1291800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1827000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1590800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1591100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1591300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1591600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1487900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1492400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1492100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1492000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1491800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1491700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1491600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1491500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1717700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1666400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1704400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1786900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1710400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1694700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1691700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1947700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1942300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1968200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1874700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1934200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1903500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>444600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>462000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>481100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>489300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>494400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>587000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>580100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>586500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>579300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>618900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4440,8 +4589,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4514,8 +4666,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4588,82 +4743,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5169400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4956400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5103000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5133300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4946500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5180000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5591700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5742100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6233300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6025600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6163800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6012700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5926200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4010200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4633500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4417500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4109600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4152200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4440000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4061000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4203200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4103400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4617800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4690,8 +4851,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4764,8 +4926,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4838,8 +5003,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4912,8 +5080,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4986,82 +5157,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9308500</v>
+      </c>
+      <c r="E72" s="3">
         <v>9666100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9825200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10101500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10174700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10225300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10215700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10290900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10072500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10374800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10460800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10521700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10679500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11112900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11388900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11386600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11360600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11343500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11170300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11130300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11057800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11003900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10753800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5134,8 +5311,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5208,8 +5388,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5282,82 +5465,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-220300</v>
+      </c>
+      <c r="E76" s="3">
         <v>174100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>553600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>934200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1106800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1276900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1697000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1461100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1764900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1848200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1903700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2062000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2560300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2903300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2902400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2904200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2888600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2748800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2721700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2672600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2719300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2615000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5430,161 +5619,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E80" s="2">
         <v>44618</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44527</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44436</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44345</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44254</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44163</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44072</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43981</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43617</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43526</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43435</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43344</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43253</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43162</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43064</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42973</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42882</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42791</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42700</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-357700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-159100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-276400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-75400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>217900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-302300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-138800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-371100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-253800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>194000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>94200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>75300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>268700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>126400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5611,82 +5809,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E83" s="3">
         <v>78900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>68300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>85300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>87400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>87100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>92300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>79600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>85700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>78900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>73600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>74900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>73900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5759,8 +5961,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5833,8 +6038,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5907,8 +6115,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5981,8 +6192,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6055,82 +6269,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-383600</v>
+      </c>
+      <c r="E89" s="3">
         <v>282600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-310800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>74800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>75700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>546000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-392400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>329000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>165800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>90100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>252800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>394000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>245000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>367800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>127100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>160100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>204600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>300600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>274500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6157,82 +6377,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-121700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-83000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-76000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-65800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-89000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-56800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-68400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-68900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-83700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-97800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-87000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-96200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-80800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-470700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-91600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6305,8 +6529,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6379,82 +6606,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-121700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-53000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>199900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>237300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>314600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-208300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-63100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>145200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>217600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-403100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-101600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-139700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>134700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-404400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-97100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-85100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-97900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-280300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6481,82 +6714,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-100</v>
       </c>
       <c r="G96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-20800</v>
       </c>
       <c r="U96" s="3">
         <v>-20800</v>
       </c>
       <c r="V96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="W96" s="3">
         <v>-21100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6629,8 +6866,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6703,8 +6943,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6777,226 +7020,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-231500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-108000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-147400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-150400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-226800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-467800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>212700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-103400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-103200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-43500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-65800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-44800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-77500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-135300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-189600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-94600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-5400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-69600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-484400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-108800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-273600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-87000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>320900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>131500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-83800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>275000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>202200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-253500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-106800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>190700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>332500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-107000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>15300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-104800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,355 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E7" s="2">
         <v>44709</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44618</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44527</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44436</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44345</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44254</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44163</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44072</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43981</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43617</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43526</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43435</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43344</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43253</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43162</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43064</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42973</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42882</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42791</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42700</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1463400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2051400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1877900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1984700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1953800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2619100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2618500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2688000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1307400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3106800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2759300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2719400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2573000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3307900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3032200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2935000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2753700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3716300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2954500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2936400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2742100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3534000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2955500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1038800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1115300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1461500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1202900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1309900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1272800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1760500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1648000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1700400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>959000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2093200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1845500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1992500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1685800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2161000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2028500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1946500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1788800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2383000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1913500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1867800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1742000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2190900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1862700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>398200</v>
+      </c>
+      <c r="E10" s="3">
         <v>348100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>589900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>675000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>674800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>681000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>858600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>970500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>987600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>348400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1013600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>913800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>726900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>887200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1146900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1003700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>988500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>964900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1333300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1041000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1068600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1000100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1343100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1092800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1041,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,8 +1119,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,55 +1199,58 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E14" s="3">
         <v>49800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>68700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>62400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>103700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>92000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>114300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>201600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-214700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>62400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>401300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>509900</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1238,8 +1258,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1259,19 +1279,22 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1279,17 +1302,17 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>600</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
       <c r="K15" s="3">
+        <v>600</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>600</v>
@@ -1303,8 +1326,8 @@
       <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>600</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1315,8 +1338,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1336,8 +1359,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1783200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1802600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2216900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1964000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2068900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2025900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2642800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2741300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2340400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1768400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3188000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2789100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2901700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2979800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3604600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2982700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2856200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2672400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3379200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2846200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2767500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2595100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3104000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2744200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-346200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-339200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-165500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-86100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-84200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-72100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-122800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>347600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-461000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-29800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-182300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-406800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-296700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>78800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>337100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>108300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>168900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>147000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>430000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>211300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,8 +1578,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1622,316 +1656,331 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-268100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-86600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-29100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>432900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-377300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-97800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-323300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-204400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>134300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>422800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>187300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>242400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>221900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>505700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>285200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E22" s="3">
         <v>16400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>18300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-364800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-355600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-182300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-101900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-88100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-140700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>324200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-478100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-96600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-198600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-422700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-312200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>320800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>94700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>149700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>130400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>413100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>193000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-23100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>176900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-26500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-54000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-64500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>106300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-132800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-31200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-59800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-58400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>116300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>55500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>55100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>144400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>66600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-357700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-159200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-278800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-76100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>217900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-345300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-65400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-138800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-371100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-253800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>204500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>61300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>75300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>268700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>126400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-357700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-159200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-278800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-73800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-76100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-345300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-65400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-138800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-371100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-253800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>204500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>61300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>94200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>75300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>268700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>126400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,40 +2296,43 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>2400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>15600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-2700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>43000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2294,11 +2355,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2315,8 +2376,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,8 +2536,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2546,85 +2616,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-357700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-159100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-276400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-73200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-75400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>217900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-302300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-65400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-138800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-371100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-253800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>194000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>94200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>268700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>126400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-357700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-159100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-276400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-73200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-75400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>217900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-302300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-65400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-138800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-371100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-253800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>194000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>94200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>268700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>126400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E38" s="2">
         <v>44709</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44618</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44527</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44436</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44345</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44254</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44163</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44072</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43981</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43617</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43526</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43435</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43344</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43253</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43162</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43064</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42973</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42882</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42791</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42700</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3003,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E41" s="3">
         <v>107500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>439500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>509100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>970600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1097300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1353000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1462600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1441800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>983800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>509000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>762500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>869300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>678600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>346100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>453100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>464100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>469300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>488300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>473000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3008,14 +3098,14 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>30000</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
         <v>30000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -3024,37 +3114,37 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>29500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>385600</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>201700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>485800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>238300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>205900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>148300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>378000</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -3062,8 +3152,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3071,8 +3161,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3148,253 +3241,265 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1759600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1725400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1911900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1590700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1563600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1671900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1780900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2052000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2240400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2093900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2543200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2334900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2540900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2618900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3005500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2813600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2646300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2730900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3199700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2878600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2962900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2905700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3268600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E45" s="3">
         <v>190200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>198200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>526500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>510100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>516000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>595200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>721000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>249700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>425300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>346400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>361100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>301400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>254200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>296300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>474300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>387300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>483200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>516000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>287700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>187700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>217900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>395800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>528500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1904200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2057300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2363200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2947500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3101400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3206900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3620000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3964500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3743600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3816200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3826300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3804400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3620200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3697100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3910000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4480600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4276100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3956400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3971100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3940500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3530400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3650200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3591900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4270100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E47" s="3">
         <v>19000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>19200</v>
       </c>
       <c r="F47" s="3">
         <v>19200</v>
       </c>
       <c r="G47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="H47" s="3">
         <v>19500</v>
@@ -3403,138 +3508,144 @@
         <v>19500</v>
       </c>
       <c r="J47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K47" s="3">
         <v>19800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>19900</v>
       </c>
       <c r="L47" s="3">
         <v>19900</v>
       </c>
       <c r="M47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N47" s="3">
         <v>20400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>107700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>99200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>96100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>89600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>86400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2590300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2716700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2590200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2527500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2587100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2513500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2505500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2521200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3209700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3265500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3437600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3696600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3785300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3813600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1853100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1866100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1882000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1893200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1909300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1841000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1834500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1817600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1837100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1769100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3542,32 +3653,32 @@
         <v>13400</v>
       </c>
       <c r="E49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F49" s="3">
         <v>16300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>22000</v>
       </c>
       <c r="J49" s="3">
         <v>22000</v>
       </c>
       <c r="K49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L49" s="3">
         <v>58500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>85700</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -3578,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>391100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>716300</v>
       </c>
       <c r="S49" s="3">
         <v>716300</v>
@@ -3596,22 +3707,25 @@
         <v>716300</v>
       </c>
       <c r="W49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="X49" s="3">
         <v>707100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>707600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>697100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>709400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E52" s="3">
         <v>142700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>141700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>143300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>340300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>293700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>289800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>464000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>407500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>507000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>506300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>490900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>490400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>456800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>396400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>453900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>425700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>427900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>424600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>583400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>611500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>604300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>606900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>397800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4666600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4949100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5130600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5656600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6067500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6053300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6456900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6991600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7439100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7694300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7790500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8012000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7916400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7988200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6570500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7536700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7319900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7013700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7040800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7188900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6782700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6875800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6822700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7232800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,96 +4183,100 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>783700</v>
+      </c>
+      <c r="E57" s="3">
         <v>816600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>872400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>908100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>991500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>889900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>986000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>865400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1028700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>954700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>944200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1210300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1073900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1066300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1094100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1554400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1366200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1082900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1197500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1455400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1168100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1178800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1179100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1621400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>2500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -4150,32 +4284,32 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>1500</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4186,8 +4320,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4207,316 +4341,331 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1037700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1207400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1199800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1310900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1175300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1163600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1308900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1842700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1472300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1506900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1520800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1486200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1411700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1363300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>983600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1124700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1077900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1045100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>968200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>905700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>820900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>946200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>853400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>886000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1828500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2026500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2074800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2219000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2166800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2053500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2294900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2708500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2502500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2464000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2466500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2698000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2487100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2431100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2077600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2679000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2444000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2128100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2165700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2361100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1989000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2125000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2032500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2507400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1776900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1425300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1215200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1179700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1179600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1182600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1190400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1191500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1291800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1827000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1590800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1591100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1591300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1591600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1487900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1492400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1492200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1492100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1492000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1491800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1491700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1491600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1638900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1717700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1666400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1704400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1786900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1710400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1694700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1691700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1947700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1942300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1968200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1874700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1934200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1903500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>444600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>462000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>481100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>489300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>494400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>587000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>580100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>586500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>579300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>618900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5244300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5169400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4956400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5103000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5133300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4946500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5180000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5591700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5742100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6233300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6025600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6163800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6012700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5926200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4010200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4633500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4417500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4109600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4152200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4440000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4061000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4203200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4103400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4617800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8942400</v>
+      </c>
+      <c r="E72" s="3">
         <v>9308500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9666100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9825200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10101500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10174700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10225300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10215700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10290900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10072500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10374800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10460800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10521700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10679500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11112900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11388900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11386600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11360600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11343500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11170300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11130300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11057800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11003900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10753800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-577700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-220300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>174100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>553600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>934200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1106800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1276900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1697000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1461100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1764900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1848200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1903700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2062000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2560300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2903300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2902400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2904200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2888600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2748800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2721700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2672600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2719300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2615000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E80" s="2">
         <v>44709</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44618</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44527</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44436</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44345</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44254</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44163</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44072</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43981</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43617</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43526</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43435</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43344</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43253</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43162</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43064</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42973</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42882</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42791</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42700</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-357700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-159100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-276400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-73200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-75400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>217900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-302300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-65400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-138800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-371100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-253800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>194000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>94200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>268700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>126400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E83" s="3">
         <v>71100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>87400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>84400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>92300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>82100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>79600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>85700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>78900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>73600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>74900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>75800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>73900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-383600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>282600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-310800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>74800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>75700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>546000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-392400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>329000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>165800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>252800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>394000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>245000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>367800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>127100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>160100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>204600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>300600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>274500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-104900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-121700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-83000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-76000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-73500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-65800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-89000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-68900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-74900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-83700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-97800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-111800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-87000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-96200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-80800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-470700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-91600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-104900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-121700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-53000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-71000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>199900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>237300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>314600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-208300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-63100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>145200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>217600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-403100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-101600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-139700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>134700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-404400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-97100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-85100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-97900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-280300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,85 +6948,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-300</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
       </c>
       <c r="H96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-20800</v>
       </c>
       <c r="V96" s="3">
         <v>-20800</v>
       </c>
       <c r="W96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="X96" s="3">
         <v>-21100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,235 +7266,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E100" s="3">
         <v>156700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-231500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-108000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-147400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-150400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-226800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-467800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>212700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-103400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-103200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-65800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-44800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-77500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-135300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-189600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-94600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-332000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-69600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-484400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-108800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-273600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-87000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-83800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>275000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>202200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-253500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-106800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>190700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>332500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-107000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>15300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-104800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>33600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>BBBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,367 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E7" s="2">
         <v>44800</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44709</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44618</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44527</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44436</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44345</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44254</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44163</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44072</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43981</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43617</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43526</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43435</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43344</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43253</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43162</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43064</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42973</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42882</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42791</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42700</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1259100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1437000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1463400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2051400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1877900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1984700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1953800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2619100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2618500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2688000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1307400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3106800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2759300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2719400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2573000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3307900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3032200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2935000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2753700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3716300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2954500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2936400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2742100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3534000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2955500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2988200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>971600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1038800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1115300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1461500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1202900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1309900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1272800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1760500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1648000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1700400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>959000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2093200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1845500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1992500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1685800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2161000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2028500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1946500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1788800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2383000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1913500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1867800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1742000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2190900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1862700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1871300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E10" s="3">
         <v>398200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>348100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>589900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>675000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>674800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>681000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>858600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>970500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>987600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>348400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1013600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>913800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>726900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>887200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1146900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1003700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>988500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>964900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1333300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1041000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1068600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1000100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1343100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1092800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1054,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1135,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,58 +1218,61 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E14" s="3">
         <v>109600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>68700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>62400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>103700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>92000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>114300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>201600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-214700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>62400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>67800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>401300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>509900</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1261,8 +1280,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1282,22 +1301,25 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1305,17 +1327,17 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>600</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
       </c>
       <c r="L15" s="3">
+        <v>600</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>600</v>
@@ -1329,8 +1351,8 @@
       <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>600</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1341,8 +1363,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1362,8 +1384,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1615700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1783200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1802600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2216900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1964000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2068900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2025900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2642800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2741300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2340400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1768400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3188000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2789100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2901700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2979800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3604600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2982700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2856200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2672400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3379200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2846200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2767500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2595100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3104000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2744200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2707300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-356600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-346200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-339200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-165500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-86100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-84200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-72100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-122800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>347600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-461000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-29800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-406800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-296700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>78800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>337100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>108300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>168900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>147000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>430000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>211300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>280900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,8 +1611,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,328 +1692,343 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-267600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-275200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-268100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-86600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-29100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>432900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-377300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-97800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-323300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-204400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>134300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>160800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>422800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>187300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>242400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>221900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>505700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>285200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>351800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E22" s="3">
         <v>18600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>18300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-390100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-364800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-355600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-182300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-101900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-88100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-140700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>324200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-478100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-96600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-46900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-198600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-422700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-312200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>320800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>94700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>149700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>130400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>413100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>193000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>262800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>176900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-26500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-54000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-64500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>106300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-132800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-31200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-51700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-58400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>116300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>55500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>55100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>144400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>66600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>95400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-366200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-357700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-159200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-278800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-73800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>217900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-345300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-65400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-371100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-253800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>24400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>204500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>61300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>94200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>75300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>268700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>126400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-366200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-357700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-159200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-278800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-73800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-345300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-65400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-371100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-253800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>24400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>204500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>61300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>94200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>75300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>268700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>126400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2310,32 +2370,32 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>2400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>15600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>43000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2358,11 +2418,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-10500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2379,8 +2439,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,8 +2605,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2619,88 +2688,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-366200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-357700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-159100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-276400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-73200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-50900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-75400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>217900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-302300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-65400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-371100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-253800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>24400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>194000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>94200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>75300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>268700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>126400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-366200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-357700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-159100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-276400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-73200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-50900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-75400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>217900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-302300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-65400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-371100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-253800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>24400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>194000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>94200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>75300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>268700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>126400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E38" s="2">
         <v>44800</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44709</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44618</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44527</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44436</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44345</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44254</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44163</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44072</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43981</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43617</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43526</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43435</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43344</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43253</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43162</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43064</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42973</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42882</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42791</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42700</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,88 +3089,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E41" s="3">
         <v>135300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>439500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>509100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>970600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1097300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1353000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1462600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1441800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>983800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>509000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>762500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>869300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>678600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>346100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>453100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>464100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>469300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>488300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>473000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3101,14 +3190,14 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>30000</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
         <v>30000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3117,37 +3206,37 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>29500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>385600</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>201700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>485800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>238300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>205900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>148300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>378000</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -3155,8 +3244,8 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3164,8 +3253,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3244,265 +3336,277 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1436200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1576300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1759600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1725400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1911900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1590700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1563600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1671900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1780900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2052000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2240400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2093900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2543200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2334900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2540900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2618900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3005500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2813600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2646300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2730900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3199700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2878600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2962900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2905700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3268600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2903600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E45" s="3">
         <v>192600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>190200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>198200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>526500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>510100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>516000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>595200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>721000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>249700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>425300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>346400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>361100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>301400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>254200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>296300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>474300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>387300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>483200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>516000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>287700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>187700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>217900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>395800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>528500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>447000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1878200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1904200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2057300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2363200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2947500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3101400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3206900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3620000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3964500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3743600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3816200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3826300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3804400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3620200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3697100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3910000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4480600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4276100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3956400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3971100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3940500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3530400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3650200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3591900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4270100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3928500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E47" s="3">
         <v>20200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>19200</v>
       </c>
       <c r="G47" s="3">
         <v>19200</v>
       </c>
       <c r="H47" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="I47" s="3">
         <v>19500</v>
@@ -3511,141 +3615,147 @@
         <v>19500</v>
       </c>
       <c r="K47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="L47" s="3">
         <v>19800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>19900</v>
       </c>
       <c r="M47" s="3">
         <v>19900</v>
       </c>
       <c r="N47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="O47" s="3">
         <v>20400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>20000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>107700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>99200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>96100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>89600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>86400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>82700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2372200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2590300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2716700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2590200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2527500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2587100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2513500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2505500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2521200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3209700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3265500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3437600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3696600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3785300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3813600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1853100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1866100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1882000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1893200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1909300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1841000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1834500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1817600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1837100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1769100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1740000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3656,32 +3766,32 @@
         <v>13400</v>
       </c>
       <c r="F49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G49" s="3">
         <v>16300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>22000</v>
       </c>
       <c r="K49" s="3">
         <v>22000</v>
       </c>
       <c r="L49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M49" s="3">
         <v>58500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85700</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -3692,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>391100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>716300</v>
       </c>
       <c r="T49" s="3">
         <v>716300</v>
@@ -3710,22 +3820,25 @@
         <v>716300</v>
       </c>
       <c r="X49" s="3">
+        <v>716300</v>
+      </c>
+      <c r="Y49" s="3">
         <v>707100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>707600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>697100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>709400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>520200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E52" s="3">
         <v>138600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>142700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>143300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>340300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>293700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>289800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>464000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>407500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>507000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>506300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>490900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>490400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>456800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>396400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>453900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>425700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>427900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>424600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>583400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>611500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>604300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>606900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>397800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>398000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4401400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4666600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4949100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5130600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5656600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6067500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6053300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6456900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6991600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7439100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7694300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7790500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8012000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7916400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7988200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6570500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7536700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7319900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7013700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7040800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7188900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6782700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6875800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6822700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7232800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6669400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,102 +4313,106 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>697900</v>
+      </c>
+      <c r="E57" s="3">
         <v>783700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>816600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>872400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>908100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>991500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>889900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>986000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>865400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1028700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>954700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>944200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1210300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1073900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1066300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1094100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1554400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1366200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1082900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1197500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1455400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1168100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1178800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1179100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1621400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1192600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>916400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2500</v>
       </c>
       <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>2500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4287,32 +4420,32 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1500</v>
       </c>
       <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>1500</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4323,8 +4456,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4344,328 +4477,343 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1037700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1207400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1199800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1310900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1175300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1163600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1308900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1842700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1472300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1506900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1520800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1486200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1411700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1363300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>983600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1124700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1077900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1045100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>968200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>905700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>820900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>946200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>853400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>886000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>805100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2572200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1828500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2026500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2074800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2219000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2166800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2053500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2294900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2708500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2502500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2464000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2466500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2698000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2487100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2431100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2077600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2679000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2444000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2128100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2165700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2361100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1989000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2125000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2032500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2507400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1997700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1080500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1776900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1425300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1215200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1179700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1179600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1182600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1190400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1191500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1291800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1827000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1590800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1591100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1591300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1591600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1487900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1492400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1492300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1492200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1492100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1492000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1491800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1491700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1491600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1491400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1547300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1638900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1717700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1666400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1704400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1786900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1710400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1694700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1691700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1947700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1942300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1968200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1874700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1934200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1903500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>444600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>462000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>481100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>489300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>494400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>587000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>580100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>586500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>579300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>618900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>606300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5244300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5169400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4956400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5103000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5133300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4946500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5180000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5591700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5742100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6233300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6025600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6163800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6012700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5926200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4010200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4633500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4417500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4109600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4152200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4440000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4061000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4203200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4103400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4617800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4095400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8549500</v>
+      </c>
+      <c r="E72" s="3">
         <v>8942400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9308500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9666100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9825200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10101500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10174700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10225300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10215700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10290900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10072500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10374800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10460800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10521700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10679500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11112900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11388900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11386600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11360600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11343500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11170300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11130300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11057800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11003900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10753800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>10646000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-798600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-577700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-220300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>174100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>553600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>934200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1106800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1276900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1697000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1461100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1764900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1848200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1903700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2062000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2560300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2903300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2902400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2904200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2888600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2748800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2721700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2672600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2719300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2615000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E80" s="2">
         <v>44800</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44709</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44618</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44527</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44436</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44345</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44254</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44163</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44072</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43981</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43617</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43526</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43435</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43344</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43253</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43162</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43064</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42973</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42882</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42791</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42700</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-366200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-357700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-159100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-276400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-73200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-50900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-75400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>217900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-302300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-65400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-138800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-371100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-253800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>24400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>194000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>94200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>75300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>268700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>126400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>167300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E83" s="3">
         <v>71000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>71100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>87100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>84400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>92300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>84800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>82100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>79600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>85700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>78900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>73600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>74900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>75800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>73900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>70800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-307600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-198900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-383600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>282600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-310800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>74800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>75700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>546000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-392400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>329000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>165800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>90100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>252800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>394000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>245000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>367800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>127100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>160100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>204600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>300600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>274500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-121600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-104900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-121700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-83000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-76000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-73500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-65800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-89000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-68400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-74900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-83700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-97800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-111800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-87000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-96200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-80800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-470700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-91600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-121600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-121700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-53000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-71000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-103500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>199900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>237300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>314600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-208300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-63100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>145200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>217600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-403100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-139700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>134700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-404400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-97100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-85100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-97900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-280300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-87900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,8 +7181,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6958,79 +7191,82 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-100</v>
       </c>
       <c r="I96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-20800</v>
       </c>
       <c r="W96" s="3">
         <v>-20800</v>
       </c>
       <c r="X96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-18300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-18500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,88 +7511,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>462800</v>
+      </c>
+      <c r="E100" s="3">
         <v>348900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>156700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-231500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-147400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-150400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-226800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-467800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>212700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-103400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-103200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-29200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-43500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-44800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-77500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-135300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-189600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-94600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-139000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7358,155 +7606,161 @@
         <v>-600</v>
       </c>
       <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E102" s="3">
         <v>27800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-332000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-69600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-484400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-108800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-273600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-87000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>320900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-83800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>275000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>202200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-253500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-106800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>190700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>332500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-107000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>15300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-104800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>33600</v>
       </c>
     </row>
